--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[프로젝트기반_프론트엔드_221214_박석호강사]\FED-PJ-2022-tom\000.커리큐럼\주단위상세일정엑셀\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="225" windowWidth="19410" windowHeight="8895"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
   <si>
     <t>3주차</t>
   </si>
@@ -65,10 +70,6 @@
   </si>
   <si>
     <t>____________________________________________________________________________________________________________________</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>포트폴리오 실기</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -81,44 +82,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>HTML5 + CSS3 기본 및 응용연습
-도깨비 PJ + 미디어쿼리 + 와이어프레이밍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 기본 및 응용연습
-도깨비 PJ + 미디어쿼리 + 애니메이션</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Javascript 기본 / CSS 애니메이션, 
-CGV PJ </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">※ 휴일: </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>취업세미나
-7월20일(수)
-7,8교시</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 기본,응용 / CSS 애니메이션</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 기본,응용 / jQuery 기본, 
-VOGUE PJ / XD 프로토타이핑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> jQuery 응용 / VOGUE PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2주차</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -265,14 +228,152 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트 기반 프론트엔드(Vue,React) 주별 상세일정</t>
+    <t xml:space="preserve"> 쉐도잉 프로젝트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공식 프로젝트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v1.</t>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / CGV PJ</t>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / CGV PJ / 보그 PJ</t>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / 보그 PJ</t>
+  </si>
+  <si>
+    <t>보그 PJ</t>
+  </si>
+  <si>
+    <t>파일럿 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 주제선정 / 분석,설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 메인구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 서브구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 미디어쿼리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 주제선정 / 분석,설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 분석 / 설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 분석 / 설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 메인구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 메인구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 미디어쿼리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 주제선정 / 분석,설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 분석 / 설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 분석 / 설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 메인구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 메인구현 리액트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 서브구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 기본 및 응용연습
+와이어프레이밍</t>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 기본 및 응용연습
+Javascript 기본</t>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본 및 응용</t>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+JS응용 / jQuery 기본</t>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 기본</t>
+  </si>
+  <si>
+    <t>Vue JS 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vue JS 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>React 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>React 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>React 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 휴일: 1/23,1/24(설연휴), 3/1(삼일절), 5/5(어린이날), 6/6(현충일)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 기반 프론트엔드(React,Vue) 웹&amp;앱 SW개발자 양성과정 주별 상세일정</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -374,7 +475,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,8 +506,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -510,42 +617,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -563,7 +721,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -579,22 +737,67 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -612,65 +815,47 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -735,7 +920,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -770,7 +955,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -982,10 +1167,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K2"/>
+      <selection activeCell="B2" sqref="B2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -998,903 +1183,1089 @@
     <col min="6" max="6" width="10.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="30.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
-    <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B4" s="5" t="s">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B2" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
+      <c r="B4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="H4" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="28" t="s">
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="A5" s="24"/>
+      <c r="B5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="19">
         <v>44909</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="29">
+      <c r="D5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="19">
         <v>44911</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="21">
         <f>DAYS360(C5,E5)+1</f>
         <v>3</v>
       </c>
-      <c r="G5" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="33" t="s">
+      <c r="G5" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="34"/>
-    </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="17">
+      <c r="C6" s="7">
         <v>44914</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="D6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7">
         <v>44918</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="9">
         <f t="shared" ref="F6:F34" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
-    </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B7" s="16" t="s">
+      <c r="G6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="7">
         <v>44921</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="17">
+      <c r="D7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7">
         <v>44925</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="23"/>
-    </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="G7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="7">
         <v>44928</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="D8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="7">
         <v>44932</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="24">
+      <c r="G8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="14">
         <v>44929</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23"/>
-    </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B9" s="16" t="s">
+      <c r="I8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="7">
         <v>44935</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="17">
+      <c r="D9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7">
         <v>44939</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23"/>
-    </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B10" s="16" t="s">
+      <c r="G9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="7">
         <v>44942</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="17">
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7">
         <v>44946</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23"/>
-    </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B11" s="16" t="s">
+      <c r="G10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="7">
         <v>44949</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="D11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="7">
         <v>44953</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="24">
+      <c r="G11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="14">
         <v>44951</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="23"/>
-    </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B12" s="16" t="s">
+      <c r="I11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="7">
         <v>44956</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="D12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="7">
         <v>44960</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="44">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23"/>
-    </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B13" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="17">
+      <c r="G12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7">
         <v>44963</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="17">
+      <c r="D13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="7">
         <v>44967</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="23"/>
-    </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B14" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="17">
+      <c r="G13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7">
         <v>44970</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="17">
+      <c r="D14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="7">
         <v>44974</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="9">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
-    </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B15" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="17">
+      <c r="G14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="7">
         <v>44977</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="17">
+      <c r="D15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="7">
         <v>44981</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="9">
+        <f>DAYS360(C15,E15)-1</f>
+        <v>3</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="7">
+        <v>44984</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="7">
+        <v>44988</v>
+      </c>
+      <c r="F16" s="44">
+        <f>DAYS360(C16,E16)-2</f>
+        <v>4</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="14">
+        <v>44987</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="7">
+        <v>44991</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="7">
+        <v>44995</v>
+      </c>
+      <c r="F17" s="9">
+        <f>DAYS360(C17,E17)+1</f>
+        <v>5</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>44998</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="7">
+        <v>45002</v>
+      </c>
+      <c r="F18" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G15" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="23"/>
-    </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B16" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="17">
-        <v>44984</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="17">
-        <v>44988</v>
-      </c>
-      <c r="F16" s="19">
-        <f>DAYS360(C16,E16)-2</f>
-        <v>4</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="24">
-        <v>44987</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
-    </row>
-    <row r="17" spans="2:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="17">
-        <v>44991</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="17">
-        <v>44995</v>
-      </c>
-      <c r="F17" s="19">
-        <f>DAYS360(C17,E17)+1</f>
-        <v>5</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="23"/>
-    </row>
-    <row r="18" spans="2:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="17">
-        <v>44998</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="17">
-        <v>45002</v>
-      </c>
-      <c r="F18" s="19">
+      <c r="G18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="7">
+        <v>45005</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="7">
+        <v>45009</v>
+      </c>
+      <c r="F19" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="23"/>
-    </row>
-    <row r="19" spans="2:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="17">
-        <v>45005</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="17">
-        <v>45009</v>
-      </c>
-      <c r="F19" s="19">
+      <c r="G19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="7">
+        <v>45012</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="7">
+        <v>45016</v>
+      </c>
+      <c r="F20" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="23"/>
-    </row>
-    <row r="20" spans="2:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B20" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="17">
-        <v>45012</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="17">
-        <v>45016</v>
-      </c>
-      <c r="F20" s="19">
+      <c r="G20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="7">
+        <v>45019</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="7">
+        <v>45023</v>
+      </c>
+      <c r="F21" s="9">
+        <f>DAYS360(C21,E21)+1</f>
+        <v>5</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="14">
+        <v>45019</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7">
+        <v>45026</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="7">
+        <v>45030</v>
+      </c>
+      <c r="F22" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="23"/>
-    </row>
-    <row r="21" spans="2:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B21" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="17">
-        <v>45019</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="17">
-        <v>45023</v>
-      </c>
-      <c r="F21" s="19">
-        <f>DAYS360(C21,E21)+1</f>
-        <v>5</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="24">
-        <v>45019</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="23"/>
-    </row>
-    <row r="22" spans="2:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B22" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="17">
-        <v>45026</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="17">
-        <v>45030</v>
-      </c>
-      <c r="F22" s="19">
+      <c r="G22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="7">
+        <v>45033</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="7">
+        <v>45037</v>
+      </c>
+      <c r="F23" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="23"/>
-    </row>
-    <row r="23" spans="2:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B23" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="17">
-        <v>45033</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="17">
-        <v>45037</v>
-      </c>
-      <c r="F23" s="19">
+      <c r="G23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="24" spans="2:12" ht="55.5" customHeight="1">
+      <c r="B24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="7">
+        <v>45040</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="7">
+        <v>45044</v>
+      </c>
+      <c r="F24" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="23"/>
-    </row>
-    <row r="24" spans="2:11" ht="55.5" customHeight="1">
-      <c r="B24" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="17">
-        <v>45040</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="17">
-        <v>45044</v>
-      </c>
-      <c r="F24" s="19">
+      <c r="G24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="14">
+        <v>45041</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="2:12" ht="57.75" customHeight="1">
+      <c r="B25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="7">
+        <v>45047</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="7">
+        <v>45051</v>
+      </c>
+      <c r="F25" s="44">
+        <f>DAYS360(C25,E25)</f>
+        <v>4</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="2:12" ht="51" customHeight="1">
+      <c r="B26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="7">
+        <v>45054</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="7">
+        <v>45058</v>
+      </c>
+      <c r="F26" s="9">
+        <f>DAYS360(C26,E26)+1</f>
+        <v>5</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="2:12" ht="51" customHeight="1">
+      <c r="B27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="7">
+        <v>45061</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="7">
+        <v>45065</v>
+      </c>
+      <c r="F27" s="9">
+        <f>DAYS360(C27,E27)+1</f>
+        <v>5</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="14">
+        <v>45065</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="2:12" ht="51" customHeight="1">
+      <c r="B28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="7">
+        <v>45068</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="7">
+        <v>45072</v>
+      </c>
+      <c r="F28" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="24">
-        <v>45041</v>
-      </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="25"/>
-    </row>
-    <row r="25" spans="2:11" ht="57.75" customHeight="1">
-      <c r="B25" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="17">
-        <v>45047</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="17">
-        <v>45051</v>
-      </c>
-      <c r="F25" s="19">
+      <c r="G28" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="2:12" ht="51" customHeight="1">
+      <c r="B29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="7">
+        <v>45075</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="7">
+        <v>45079</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="2:12" ht="51" customHeight="1">
+      <c r="B30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="7">
+        <v>45082</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="7">
+        <v>45086</v>
+      </c>
+      <c r="F30" s="44">
+        <f>DAYS360(C30,E30)</f>
+        <v>4</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="2:12" ht="51" customHeight="1">
+      <c r="B31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="7">
+        <v>45089</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="7">
+        <v>45093</v>
+      </c>
+      <c r="F31" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G31" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="14">
+        <v>45089</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" spans="2:12" ht="51" customHeight="1">
+      <c r="B32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="7">
+        <v>45096</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="7">
+        <v>45100</v>
+      </c>
+      <c r="F32" s="9">
+        <f>DAYS360(C32,E32)+1</f>
+        <v>5</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" spans="2:12" ht="51" customHeight="1">
+      <c r="B33" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="25"/>
-    </row>
-    <row r="26" spans="2:11" ht="51" customHeight="1">
-      <c r="B26" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="17">
-        <v>45054</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="17">
-        <v>45058</v>
-      </c>
-      <c r="F26" s="19">
+      <c r="C33" s="7">
+        <v>45103</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="7">
+        <v>45107</v>
+      </c>
+      <c r="F33" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="27"/>
-    </row>
-    <row r="27" spans="2:11" ht="51" customHeight="1">
-      <c r="B27" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="17">
-        <v>45061</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="17">
-        <v>45065</v>
-      </c>
-      <c r="F27" s="19">
-        <f>DAYS360(C27,E27)+1</f>
-        <v>5</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="24">
-        <v>45065</v>
-      </c>
-      <c r="I27" s="18" t="s">
+      <c r="G33" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="14">
+        <v>45107</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="2:12" ht="51" customHeight="1" thickBot="1">
+      <c r="B34" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="51" customHeight="1">
-      <c r="B28" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="17">
-        <v>45068</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="17">
-        <v>45072</v>
-      </c>
-      <c r="F28" s="19">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="27"/>
-    </row>
-    <row r="29" spans="2:11" ht="51" customHeight="1">
-      <c r="B29" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="17">
-        <v>45075</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="17">
-        <v>45079</v>
-      </c>
-      <c r="F29" s="19">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="27"/>
-    </row>
-    <row r="30" spans="2:11" ht="51" customHeight="1">
-      <c r="B30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="17">
-        <v>45082</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="17">
-        <v>45086</v>
-      </c>
-      <c r="F30" s="19">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="27"/>
-    </row>
-    <row r="31" spans="2:11" ht="51" customHeight="1">
-      <c r="B31" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="17">
-        <v>45089</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="17">
-        <v>45093</v>
-      </c>
-      <c r="F31" s="19">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="24">
-        <v>45089</v>
-      </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="27"/>
-    </row>
-    <row r="32" spans="2:11" ht="51" customHeight="1">
-      <c r="B32" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="17">
-        <v>45096</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="17">
-        <v>45100</v>
-      </c>
-      <c r="F32" s="19">
-        <f>DAYS360(C32,E32)+1</f>
-        <v>5</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" s="26"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="27"/>
-    </row>
-    <row r="33" spans="2:11" ht="51" customHeight="1">
-      <c r="B33" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="17">
-        <v>45103</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="17">
-        <v>45107</v>
-      </c>
-      <c r="F33" s="19">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="24">
-        <v>45107</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J33" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="27"/>
-    </row>
-    <row r="34" spans="2:11" ht="51" customHeight="1">
-      <c r="B34" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="17">
+      <c r="C34" s="32">
         <v>45110</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="17">
+      <c r="D34" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="32">
         <v>45110</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G34" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="H34" s="24">
+      <c r="G34" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="42">
         <v>45110</v>
       </c>
-      <c r="I34" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="K34" s="25"/>
-    </row>
-    <row r="35" spans="2:11" ht="47.25" customHeight="1" thickBot="1">
+      <c r="I34" s="42"/>
+      <c r="J34" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" s="40"/>
+      <c r="L34" s="43"/>
+    </row>
+    <row r="35" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
       <c r="C35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="4">
         <f>SUM(F5:F34)</f>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="21.75" customHeight="1">
-      <c r="B36" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B36" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="37" spans="2:11" s="7" customFormat="1" ht="20.25">
-      <c r="B37" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+    </row>
+    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
+      <c r="B37" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B3:K3"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B2:L2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="28" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -797,7 +797,49 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -813,48 +855,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1170,7 +1170,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1191,60 +1191,60 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="38" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="30" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
         <f>DAYS360(C5,E5)+1</f>
         <v>3</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="31" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="20"/>
@@ -1486,7 +1486,7 @@
       <c r="E12" s="7">
         <v>44960</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="37">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="E15" s="7">
         <v>44981</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="37">
         <f>DAYS360(C15,E15)-1</f>
         <v>3</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="E16" s="7">
         <v>44988</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="37">
         <f>DAYS360(C16,E16)-2</f>
         <v>4</v>
       </c>
@@ -1908,7 +1908,7 @@
       <c r="E25" s="7">
         <v>45051</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="37">
         <f>DAYS360(C25,E25)</f>
         <v>4</v>
       </c>
@@ -2070,7 +2070,7 @@
       <c r="E30" s="7">
         <v>45086</v>
       </c>
-      <c r="F30" s="44">
+      <c r="F30" s="37">
         <f>DAYS360(C30,E30)</f>
         <v>4</v>
       </c>
@@ -2190,34 +2190,34 @@
       <c r="L33" s="17"/>
     </row>
     <row r="34" spans="2:12" ht="51" customHeight="1" thickBot="1">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="26">
         <v>45110</v>
       </c>
-      <c r="D34" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="32">
+      <c r="D34" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="26">
         <v>45110</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G34" s="35" t="s">
+      <c r="G34" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="35">
         <v>45110</v>
       </c>
-      <c r="I34" s="42"/>
-      <c r="J34" s="33" t="s">
+      <c r="I34" s="35"/>
+      <c r="J34" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="K34" s="40"/>
-      <c r="L34" s="43"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="36"/>
     </row>
     <row r="35" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
       <c r="C35" s="1"/>
@@ -2228,32 +2228,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="97">
   <si>
     <t>3주차</t>
   </si>
@@ -324,10 +324,6 @@
   </si>
   <si>
     <t>HTML5 + CSS3 기본 및 응용연습
-와이어프레이밍</t>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 기본 및 응용연습
 Javascript 기본</t>
   </si>
   <si>
@@ -367,6 +363,21 @@
   </si>
   <si>
     <t>프로젝트 기반 프론트엔드(React,Vue) 웹&amp;앱 SW개발자 양성과정 주별 상세일정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 기본 및 응용연습
+프로토타이핑(Figma)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 기본 및 응용연습
+프로토타이핑(Figma)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 기본 및 응용연습
+와이어프레이밍(Balsamiq)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +486,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,6 +523,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -721,7 +744,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,24 +799,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -855,6 +860,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1170,7 +1220,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1191,123 +1241,123 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
+      <c r="B2" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="32" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="47">
         <v>44909</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="19">
+      <c r="D5" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="47">
         <v>44911</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="49">
         <f>DAYS360(C5,E5)+1</f>
         <v>3</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="22" t="s">
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="23"/>
+      <c r="L5" s="52"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="40">
         <v>44914</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="40">
         <v>44918</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="42">
         <f t="shared" ref="F6:F34" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="8" t="s">
+      <c r="H6" s="43"/>
+      <c r="I6" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="13"/>
+      <c r="K6" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="45"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B7" s="6" t="s">
@@ -1337,7 +1387,7 @@
         <v>67</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="L7" s="13"/>
     </row>
@@ -1371,7 +1421,7 @@
         <v>67</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="L8" s="13"/>
     </row>
@@ -1403,7 +1453,7 @@
         <v>68</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L9" s="13"/>
     </row>
@@ -1435,7 +1485,7 @@
         <v>68</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L10" s="13"/>
     </row>
@@ -1469,7 +1519,7 @@
         <v>69</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L11" s="13"/>
     </row>
@@ -1486,7 +1536,7 @@
       <c r="E12" s="7">
         <v>44960</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1501,7 +1551,7 @@
         <v>70</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L12" s="13"/>
     </row>
@@ -1533,7 +1583,7 @@
         <v>71</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L13" s="13"/>
     </row>
@@ -1565,7 +1615,7 @@
         <v>72</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L14" s="13"/>
     </row>
@@ -1582,7 +1632,7 @@
       <c r="E15" s="7">
         <v>44981</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="31">
         <f>DAYS360(C15,E15)-1</f>
         <v>3</v>
       </c>
@@ -1597,7 +1647,7 @@
         <v>73</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L15" s="13"/>
     </row>
@@ -1614,7 +1664,7 @@
       <c r="E16" s="7">
         <v>44988</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="31">
         <f>DAYS360(C16,E16)-2</f>
         <v>4</v>
       </c>
@@ -1631,7 +1681,7 @@
         <v>74</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L16" s="13"/>
     </row>
@@ -1663,7 +1713,7 @@
         <v>75</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L17" s="13"/>
     </row>
@@ -1695,7 +1745,7 @@
         <v>82</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L18" s="13"/>
     </row>
@@ -1727,7 +1777,7 @@
         <v>82</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L19" s="13"/>
     </row>
@@ -1759,7 +1809,7 @@
         <v>76</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L20" s="13"/>
     </row>
@@ -1789,11 +1839,11 @@
       <c r="I21" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="53" t="s">
         <v>44</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L21" s="13"/>
     </row>
@@ -1825,7 +1875,7 @@
         <v>77</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L22" s="13"/>
     </row>
@@ -1857,7 +1907,7 @@
         <v>78</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L23" s="13"/>
     </row>
@@ -1891,7 +1941,7 @@
         <v>79</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L24" s="15"/>
     </row>
@@ -1908,7 +1958,7 @@
       <c r="E25" s="7">
         <v>45051</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="31">
         <f>DAYS360(C25,E25)</f>
         <v>4</v>
       </c>
@@ -1923,7 +1973,7 @@
         <v>80</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L25" s="15"/>
     </row>
@@ -1955,7 +2005,7 @@
         <v>80</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L26" s="17"/>
     </row>
@@ -1985,11 +2035,11 @@
       <c r="I27" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="53" t="s">
         <v>47</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L27" s="17"/>
     </row>
@@ -2021,7 +2071,7 @@
         <v>81</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L28" s="17"/>
     </row>
@@ -2053,7 +2103,7 @@
         <v>81</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L29" s="17"/>
     </row>
@@ -2070,7 +2120,7 @@
       <c r="E30" s="7">
         <v>45086</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="31">
         <f>DAYS360(C30,E30)</f>
         <v>4</v>
       </c>
@@ -2085,7 +2135,7 @@
         <v>81</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L30" s="17"/>
     </row>
@@ -2119,7 +2169,7 @@
         <v>81</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L31" s="17"/>
     </row>
@@ -2151,7 +2201,7 @@
         <v>81</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L32" s="17"/>
     </row>
@@ -2181,43 +2231,43 @@
       <c r="I33" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="53" t="s">
         <v>51</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L33" s="17"/>
     </row>
     <row r="34" spans="2:12" ht="51" customHeight="1" thickBot="1">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="20">
         <v>45110</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="26">
+      <c r="D34" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="20">
         <v>45110</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H34" s="35">
+      <c r="H34" s="29">
         <v>45110</v>
       </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="27" t="s">
+      <c r="I34" s="29"/>
+      <c r="J34" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K34" s="34"/>
-      <c r="L34" s="36"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="30"/>
     </row>
     <row r="35" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
       <c r="C35" s="1"/>
@@ -2228,32 +2278,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
+      <c r="B37" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -744,7 +744,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -905,6 +905,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1219,8 +1240,8 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1327,69 +1348,69 @@
       <c r="L5" s="45"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="55">
         <v>44914</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="33">
+      <c r="D6" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="55">
         <v>44918</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="57">
         <f t="shared" ref="F6:F34" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="34" t="s">
+      <c r="H6" s="58"/>
+      <c r="I6" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="38"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="33">
         <v>44921</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="33">
         <v>44925</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="8" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="L7" s="13"/>
+      <c r="L7" s="38"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B8" s="6" t="s">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="99">
   <si>
     <t>3주차</t>
   </si>
@@ -263,14 +263,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1차 메인구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 서브구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1차 미디어쿼리</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -378,6 +370,24 @@
   <si>
     <t>HTML5 + CSS3 기본 및 응용연습
 와이어프레이밍(Balsamiq)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계
+와이어프레임 제출(금)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계
+프로토타입 제출(금)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -904,6 +914,9 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -923,9 +936,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1240,8 +1250,8 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1262,41 +1272,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="59"/>
+      <c r="B2" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="26" t="s">
         <v>11</v>
       </c>
@@ -1375,7 +1385,7 @@
         <v>66</v>
       </c>
       <c r="K6" s="51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L6" s="52"/>
     </row>
@@ -1407,7 +1417,7 @@
         <v>67</v>
       </c>
       <c r="K7" s="51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L7" s="52"/>
     </row>
@@ -1432,17 +1442,17 @@
       <c r="G8" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="53">
         <v>44929</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>60</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L8" s="37"/>
     </row>
@@ -1470,11 +1480,11 @@
       <c r="I9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>68</v>
+      <c r="J9" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L9" s="13"/>
     </row>
@@ -1503,10 +1513,10 @@
         <v>62</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L10" s="13"/>
     </row>
@@ -1536,11 +1546,11 @@
       <c r="I11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>69</v>
+      <c r="J11" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L11" s="13"/>
     </row>
@@ -1569,10 +1579,10 @@
         <v>63</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L12" s="13"/>
     </row>
@@ -1601,10 +1611,10 @@
         <v>64</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L13" s="13"/>
     </row>
@@ -1633,10 +1643,10 @@
         <v>64</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L14" s="13"/>
     </row>
@@ -1665,10 +1675,10 @@
         <v>64</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L15" s="13"/>
     </row>
@@ -1699,10 +1709,10 @@
         <v>64</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L16" s="13"/>
     </row>
@@ -1731,10 +1741,10 @@
         <v>64</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L17" s="13"/>
     </row>
@@ -1763,10 +1773,10 @@
         <v>64</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L18" s="13"/>
     </row>
@@ -1795,10 +1805,10 @@
         <v>64</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L19" s="13"/>
     </row>
@@ -1827,10 +1837,10 @@
         <v>64</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L20" s="13"/>
     </row>
@@ -1864,7 +1874,7 @@
         <v>44</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L21" s="13"/>
     </row>
@@ -1893,10 +1903,10 @@
         <v>65</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L22" s="13"/>
     </row>
@@ -1925,10 +1935,10 @@
         <v>65</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L23" s="13"/>
     </row>
@@ -1959,10 +1969,10 @@
         <v>65</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L24" s="15"/>
     </row>
@@ -1991,10 +2001,10 @@
         <v>65</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L25" s="15"/>
     </row>
@@ -2023,10 +2033,10 @@
         <v>65</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L26" s="17"/>
     </row>
@@ -2060,7 +2070,7 @@
         <v>47</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L27" s="17"/>
     </row>
@@ -2089,10 +2099,10 @@
         <v>65</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L28" s="17"/>
     </row>
@@ -2121,10 +2131,10 @@
         <v>65</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L29" s="17"/>
     </row>
@@ -2153,10 +2163,10 @@
         <v>65</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L30" s="17"/>
     </row>
@@ -2187,10 +2197,10 @@
         <v>65</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L31" s="17"/>
     </row>
@@ -2219,10 +2229,10 @@
         <v>65</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L32" s="17"/>
     </row>
@@ -2256,7 +2266,7 @@
         <v>51</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L33" s="17"/>
     </row>
@@ -2299,32 +2309,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
+      <c r="B37" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="101">
   <si>
     <t>3주차</t>
   </si>
@@ -263,34 +263,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1차 미디어쿼리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 주제선정 / 분석,설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 분석 / 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 분석 / 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 메인구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 메인구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 미디어쿼리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3차 주제선정 / 분석,설계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -308,10 +280,6 @@
   </si>
   <si>
     <t>3차 메인구현 리액트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 서브구현</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -319,14 +287,6 @@
 Javascript 기본</t>
   </si>
   <si>
-    <t>HTML5 + CSS3 응용연습
-Javascript 기본 및 응용</t>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 응용연습
-JS응용 / jQuery 기본</t>
-  </si>
-  <si>
     <t>JS응용 / jQuery 기본</t>
   </si>
   <si>
@@ -339,10 +299,6 @@
   </si>
   <si>
     <t>React 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>React 응용</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -377,17 +333,70 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>1차 분석 / 설계
+와이어프레임 제출(수)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>1차 분석 / 설계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1차 분석 / 설계
-와이어프레임 제출(금)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 분석 / 설계
+    <t>1차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 주제선정/분석설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 용용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 레이아웃코딩
 프로토타입 제출(금)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기본 및 응용</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -754,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,9 +923,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -936,6 +942,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1250,8 +1262,8 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1272,41 +1284,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
+      <c r="B2" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="59"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="26" t="s">
         <v>11</v>
       </c>
@@ -1385,7 +1397,7 @@
         <v>66</v>
       </c>
       <c r="K6" s="51" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L6" s="52"/>
     </row>
@@ -1417,76 +1429,76 @@
         <v>67</v>
       </c>
       <c r="K7" s="51" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="L7" s="52"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="47">
         <v>44928</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="33">
+      <c r="D8" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="47">
         <v>44932</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="61">
         <v>44929</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" s="37"/>
+      <c r="J8" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="52"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="33">
         <v>44935</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="33">
         <v>44939</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="8" t="s">
+      <c r="H9" s="60"/>
+      <c r="I9" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" s="13"/>
+      <c r="J9" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="37"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B10" s="6" t="s">
@@ -1512,11 +1524,11 @@
       <c r="I10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>96</v>
+      <c r="J10" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="L10" s="13"/>
     </row>
@@ -1547,10 +1559,10 @@
         <v>62</v>
       </c>
       <c r="J11" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="L11" s="13"/>
     </row>
@@ -1578,11 +1590,11 @@
       <c r="I12" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>68</v>
+      <c r="J12" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="L12" s="13"/>
     </row>
@@ -1611,10 +1623,10 @@
         <v>64</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="L13" s="13"/>
     </row>
@@ -1643,10 +1655,10 @@
         <v>64</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="L14" s="13"/>
     </row>
@@ -1675,10 +1687,10 @@
         <v>64</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="L15" s="13"/>
     </row>
@@ -1709,10 +1721,10 @@
         <v>64</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="L16" s="13"/>
     </row>
@@ -1741,10 +1753,10 @@
         <v>64</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="L17" s="13"/>
     </row>
@@ -1773,10 +1785,10 @@
         <v>64</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="L18" s="13"/>
     </row>
@@ -1805,10 +1817,10 @@
         <v>64</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="L19" s="13"/>
     </row>
@@ -1837,10 +1849,10 @@
         <v>64</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L20" s="13"/>
     </row>
@@ -1874,7 +1886,7 @@
         <v>44</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="L21" s="13"/>
     </row>
@@ -1903,10 +1915,10 @@
         <v>65</v>
       </c>
       <c r="J22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="L22" s="13"/>
     </row>
@@ -1935,10 +1947,10 @@
         <v>65</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="L23" s="13"/>
     </row>
@@ -1969,10 +1981,10 @@
         <v>65</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="L24" s="15"/>
     </row>
@@ -2001,10 +2013,10 @@
         <v>65</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L25" s="15"/>
     </row>
@@ -2033,10 +2045,10 @@
         <v>65</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L26" s="17"/>
     </row>
@@ -2070,7 +2082,7 @@
         <v>47</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L27" s="17"/>
     </row>
@@ -2099,10 +2111,10 @@
         <v>65</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="L28" s="17"/>
     </row>
@@ -2131,10 +2143,10 @@
         <v>65</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="L29" s="17"/>
     </row>
@@ -2163,10 +2175,10 @@
         <v>65</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="L30" s="17"/>
     </row>
@@ -2197,10 +2209,10 @@
         <v>65</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="L31" s="17"/>
     </row>
@@ -2229,10 +2241,10 @@
         <v>65</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="L32" s="17"/>
     </row>
@@ -2266,7 +2278,7 @@
         <v>51</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="L33" s="17"/>
     </row>
@@ -2309,32 +2321,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
+      <c r="B37" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[프로젝트기반_프론트엔드_221214_박석호강사]\FED-PJ-2022-tom\000.커리큐럼\주단위상세일정엑셀\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="225" windowWidth="19410" windowHeight="8895"/>
   </bookViews>
@@ -403,7 +398,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -923,6 +918,12 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -942,12 +943,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1013,7 +1008,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1048,7 +1043,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1262,8 +1257,8 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1284,41 +1279,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="26" t="s">
         <v>11</v>
       </c>
@@ -1453,7 +1448,7 @@
       <c r="G8" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="54">
         <v>44929</v>
       </c>
       <c r="I8" s="48" t="s">
@@ -1468,69 +1463,69 @@
       <c r="L8" s="52"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="47">
         <v>44935</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="33">
+      <c r="D9" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="47">
         <v>44939</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="34" t="s">
+      <c r="H9" s="50"/>
+      <c r="I9" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="37"/>
+      <c r="L9" s="52"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="33">
         <v>44942</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="33">
         <v>44946</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="8" t="s">
+      <c r="H10" s="53"/>
+      <c r="I10" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="L10" s="13"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B11" s="6" t="s">
@@ -2321,32 +2316,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[프로젝트기반_프론트엔드_221214_박석호강사]\FED-PJ-2022-tom\000.커리큐럼\주단위상세일정엑셀\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="225" windowWidth="19410" windowHeight="8895"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="102">
   <si>
     <t>3주차</t>
   </si>
@@ -234,12 +239,6 @@
     <t>도깨비 PJ v1.</t>
   </si>
   <si>
-    <t>도깨비 PJ v2. / CGV PJ</t>
-  </si>
-  <si>
-    <t>도깨비 PJ v2. / CGV PJ / 보그 PJ</t>
-  </si>
-  <si>
     <t>도깨비 PJ v2. / 보그 PJ</t>
   </si>
   <si>
@@ -392,13 +391,25 @@
   </si>
   <si>
     <t>Javascript 기본 및 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v1. / CGV PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v1. / CGV PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -1008,7 +1019,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1043,7 +1054,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1257,8 +1268,8 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1280,7 +1291,7 @@
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="B2" s="59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
@@ -1389,10 +1400,10 @@
         <v>60</v>
       </c>
       <c r="J6" s="48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K6" s="51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L6" s="52"/>
     </row>
@@ -1421,10 +1432,10 @@
         <v>60</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K7" s="51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L7" s="52"/>
     </row>
@@ -1455,10 +1466,10 @@
         <v>60</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K8" s="51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L8" s="52"/>
     </row>
@@ -1484,13 +1495,13 @@
       </c>
       <c r="H9" s="50"/>
       <c r="I9" s="48" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="J9" s="51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K9" s="51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L9" s="52"/>
     </row>
@@ -1517,13 +1528,13 @@
       </c>
       <c r="H10" s="53"/>
       <c r="I10" s="34" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L10" s="37"/>
     </row>
@@ -1551,13 +1562,13 @@
         <v>44951</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L11" s="13"/>
     </row>
@@ -1574,22 +1585,22 @@
       <c r="E12" s="7">
         <v>44960</v>
       </c>
-      <c r="F12" s="31">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="F12" s="9">
+        <f>DAYS360(C12,E12)+2</f>
+        <v>5</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J12" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="L12" s="13"/>
     </row>
@@ -1615,13 +1626,13 @@
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L13" s="13"/>
     </row>
@@ -1647,13 +1658,13 @@
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L14" s="13"/>
     </row>
@@ -1670,22 +1681,22 @@
       <c r="E15" s="7">
         <v>44981</v>
       </c>
-      <c r="F15" s="31">
-        <f>DAYS360(C15,E15)-1</f>
-        <v>3</v>
+      <c r="F15" s="9">
+        <f>DAYS360(C15,E15)+1</f>
+        <v>5</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L15" s="13"/>
     </row>
@@ -1713,13 +1724,13 @@
         <v>44987</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L16" s="13"/>
     </row>
@@ -1745,13 +1756,13 @@
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L17" s="13"/>
     </row>
@@ -1777,13 +1788,13 @@
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L18" s="13"/>
     </row>
@@ -1809,13 +1820,13 @@
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L19" s="13"/>
     </row>
@@ -1841,13 +1852,13 @@
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L20" s="13"/>
     </row>
@@ -1875,13 +1886,13 @@
         <v>45019</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J21" s="45" t="s">
         <v>44</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L21" s="13"/>
     </row>
@@ -1907,13 +1918,13 @@
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L22" s="13"/>
     </row>
@@ -1939,13 +1950,13 @@
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L23" s="13"/>
     </row>
@@ -1973,13 +1984,13 @@
         <v>45041</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L24" s="15"/>
     </row>
@@ -2005,13 +2016,13 @@
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L25" s="15"/>
     </row>
@@ -2037,13 +2048,13 @@
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L26" s="17"/>
     </row>
@@ -2071,13 +2082,13 @@
         <v>45065</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J27" s="45" t="s">
         <v>47</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L27" s="17"/>
     </row>
@@ -2103,13 +2114,13 @@
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L28" s="17"/>
     </row>
@@ -2135,13 +2146,13 @@
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L29" s="17"/>
     </row>
@@ -2167,13 +2178,13 @@
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L30" s="17"/>
     </row>
@@ -2201,13 +2212,13 @@
         <v>45089</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L31" s="17"/>
     </row>
@@ -2233,13 +2244,13 @@
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L32" s="17"/>
     </row>
@@ -2267,13 +2278,13 @@
         <v>45107</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J33" s="45" t="s">
         <v>51</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L33" s="17"/>
     </row>
@@ -2312,7 +2323,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="4">
         <f>SUM(F5:F34)</f>
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
@@ -2331,7 +2342,7 @@
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
       <c r="B37" s="58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C37" s="58"/>
       <c r="D37" s="58"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="103">
   <si>
     <t>3주차</t>
   </si>
@@ -239,9 +239,6 @@
     <t>도깨비 PJ v1.</t>
   </si>
   <si>
-    <t>도깨비 PJ v2. / 보그 PJ</t>
-  </si>
-  <si>
     <t>보그 PJ</t>
   </si>
   <si>
@@ -360,10 +357,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>JS응용 / jQuery 용용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>JS응용 / jQuery 응용</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -403,6 +396,18 @@
   </si>
   <si>
     <t>도깨비 PJ v2.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / 보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / 보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / 보그 PJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -929,9 +934,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,6 +956,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1269,7 +1274,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1290,41 +1295,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
+      <c r="B2" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="26" t="s">
         <v>11</v>
       </c>
@@ -1400,10 +1405,10 @@
         <v>60</v>
       </c>
       <c r="J6" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K6" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L6" s="52"/>
     </row>
@@ -1432,10 +1437,10 @@
         <v>60</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" s="51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L7" s="52"/>
     </row>
@@ -1459,17 +1464,17 @@
       <c r="G8" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="53">
         <v>44929</v>
       </c>
       <c r="I8" s="48" t="s">
         <v>60</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K8" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L8" s="52"/>
     </row>
@@ -1495,82 +1500,82 @@
       </c>
       <c r="H9" s="50"/>
       <c r="I9" s="48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J9" s="51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L9" s="52"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="47">
         <v>44942</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="33">
+      <c r="D10" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="47">
         <v>44946</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10" s="37"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="52"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="33">
         <v>44951</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="33">
         <v>44953</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="35">
         <f>DAYS360(C11,E11)+1</f>
         <v>3</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="61">
         <v>44951</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="L11" s="13"/>
+      <c r="I11" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="37"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B12" s="6" t="s">
@@ -1594,13 +1599,13 @@
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="12" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="J12" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>97</v>
       </c>
       <c r="L12" s="13"/>
     </row>
@@ -1626,13 +1631,13 @@
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="12" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L13" s="13"/>
     </row>
@@ -1658,13 +1663,13 @@
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="12" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L14" s="13"/>
     </row>
@@ -1690,13 +1695,13 @@
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L15" s="13"/>
     </row>
@@ -1724,13 +1729,13 @@
         <v>44987</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L16" s="13"/>
     </row>
@@ -1756,13 +1761,13 @@
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L17" s="13"/>
     </row>
@@ -1788,13 +1793,13 @@
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L18" s="13"/>
     </row>
@@ -1820,13 +1825,13 @@
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L19" s="13"/>
     </row>
@@ -1852,13 +1857,13 @@
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L20" s="13"/>
     </row>
@@ -1886,13 +1891,13 @@
         <v>45019</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J21" s="45" t="s">
         <v>44</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L21" s="13"/>
     </row>
@@ -1918,13 +1923,13 @@
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L22" s="13"/>
     </row>
@@ -1950,13 +1955,13 @@
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L23" s="13"/>
     </row>
@@ -1984,13 +1989,13 @@
         <v>45041</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L24" s="15"/>
     </row>
@@ -2016,13 +2021,13 @@
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L25" s="15"/>
     </row>
@@ -2048,13 +2053,13 @@
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L26" s="17"/>
     </row>
@@ -2082,13 +2087,13 @@
         <v>45065</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J27" s="45" t="s">
         <v>47</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L27" s="17"/>
     </row>
@@ -2114,13 +2119,13 @@
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L28" s="17"/>
     </row>
@@ -2146,13 +2151,13 @@
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L29" s="17"/>
     </row>
@@ -2178,13 +2183,13 @@
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L30" s="17"/>
     </row>
@@ -2212,13 +2217,13 @@
         <v>45089</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L31" s="17"/>
     </row>
@@ -2244,13 +2249,13 @@
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L32" s="17"/>
     </row>
@@ -2278,13 +2283,13 @@
         <v>45107</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J33" s="45" t="s">
         <v>51</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L33" s="17"/>
     </row>
@@ -2327,32 +2332,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
+      <c r="B37" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -379,10 +379,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Javascript 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Javascript 기본 및 응용</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -408,6 +404,11 @@
   </si>
   <si>
     <t>도깨비 PJ v2. / 보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -958,7 +959,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1273,8 +1274,8 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1500,7 +1501,7 @@
       </c>
       <c r="H9" s="50"/>
       <c r="I9" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J9" s="51" t="s">
         <v>64</v>
@@ -1532,7 +1533,7 @@
       </c>
       <c r="H10" s="50"/>
       <c r="I10" s="48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J10" s="51" t="s">
         <v>82</v>
@@ -1543,71 +1544,71 @@
       <c r="L10" s="52"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="47">
         <v>44951</v>
       </c>
-      <c r="D11" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="33">
+      <c r="D11" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="47">
         <v>44953</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="49">
         <f>DAYS360(C11,E11)+1</f>
         <v>3</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="61">
+      <c r="H11" s="53">
         <v>44951</v>
       </c>
-      <c r="I11" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="36" t="s">
+      <c r="I11" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="L11" s="37"/>
+      <c r="K11" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="52"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="33">
         <v>44956</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="33">
         <v>44960</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="35">
         <f>DAYS360(C12,E12)+2</f>
         <v>5</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" s="12" t="s">
+      <c r="H12" s="61"/>
+      <c r="I12" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" s="13"/>
+      <c r="K12" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" s="37"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B13" s="6" t="s">
@@ -1631,13 +1632,13 @@
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>84</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L13" s="13"/>
     </row>
@@ -1663,7 +1664,7 @@
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>84</v>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="104">
   <si>
     <t>3주차</t>
   </si>
@@ -278,9 +278,6 @@
 Javascript 기본</t>
   </si>
   <si>
-    <t>JS응용 / jQuery 기본</t>
-  </si>
-  <si>
     <t>Vue JS 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -365,10 +362,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>JS응용 / jQuery 응용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1차 레이아웃코딩
 프로토타입 제출(금)</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -379,23 +372,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Javascript 기본 및 응용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>도깨비 PJ v1. / CGV PJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>도깨비 PJ v1. / CGV PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>도깨비 PJ v2.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ v2. / 보그 PJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -409,6 +390,33 @@
   <si>
     <t>HTML5 + CSS3 응용연습
 Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v1. / CGV PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -938,6 +946,9 @@
     <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -957,9 +968,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1274,7 +1282,7 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1296,41 +1304,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
+      <c r="B2" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="26" t="s">
         <v>11</v>
       </c>
@@ -1409,7 +1417,7 @@
         <v>63</v>
       </c>
       <c r="K6" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L6" s="52"/>
     </row>
@@ -1441,7 +1449,7 @@
         <v>64</v>
       </c>
       <c r="K7" s="51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L7" s="52"/>
     </row>
@@ -1472,10 +1480,10 @@
         <v>60</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K8" s="51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L8" s="52"/>
     </row>
@@ -1501,7 +1509,7 @@
       </c>
       <c r="H9" s="50"/>
       <c r="I9" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J9" s="51" t="s">
         <v>64</v>
@@ -1533,13 +1541,13 @@
       </c>
       <c r="H10" s="50"/>
       <c r="I10" s="48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J10" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K10" s="51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L10" s="52"/>
     </row>
@@ -1567,13 +1575,13 @@
         <v>44951</v>
       </c>
       <c r="I11" s="51" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J11" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K11" s="51" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L11" s="52"/>
     </row>
@@ -1598,15 +1606,15 @@
       <c r="G12" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="61"/>
+      <c r="H12" s="54"/>
       <c r="I12" s="36" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L12" s="37"/>
     </row>
@@ -1632,13 +1640,13 @@
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L13" s="13"/>
     </row>
@@ -1664,13 +1672,13 @@
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="L14" s="13"/>
     </row>
@@ -1699,10 +1707,10 @@
         <v>61</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="L15" s="13"/>
     </row>
@@ -1733,10 +1741,10 @@
         <v>61</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="L16" s="13"/>
     </row>
@@ -1765,10 +1773,10 @@
         <v>61</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="L17" s="13"/>
     </row>
@@ -1797,10 +1805,10 @@
         <v>61</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L18" s="13"/>
     </row>
@@ -1829,10 +1837,10 @@
         <v>61</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="L19" s="13"/>
     </row>
@@ -1861,10 +1869,10 @@
         <v>61</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L20" s="13"/>
     </row>
@@ -1898,7 +1906,7 @@
         <v>44</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L21" s="13"/>
     </row>
@@ -1930,7 +1938,7 @@
         <v>65</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L22" s="13"/>
     </row>
@@ -1962,7 +1970,7 @@
         <v>66</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L23" s="13"/>
     </row>
@@ -1996,7 +2004,7 @@
         <v>67</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L24" s="15"/>
     </row>
@@ -2028,7 +2036,7 @@
         <v>68</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L25" s="15"/>
     </row>
@@ -2060,7 +2068,7 @@
         <v>68</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L26" s="17"/>
     </row>
@@ -2094,7 +2102,7 @@
         <v>47</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L27" s="17"/>
     </row>
@@ -2126,7 +2134,7 @@
         <v>69</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L28" s="17"/>
     </row>
@@ -2158,7 +2166,7 @@
         <v>69</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L29" s="17"/>
     </row>
@@ -2190,7 +2198,7 @@
         <v>69</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L30" s="17"/>
     </row>
@@ -2224,7 +2232,7 @@
         <v>69</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L31" s="17"/>
     </row>
@@ -2256,7 +2264,7 @@
         <v>69</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L32" s="17"/>
     </row>
@@ -2290,7 +2298,7 @@
         <v>51</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L33" s="17"/>
     </row>
@@ -2333,32 +2341,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
+      <c r="B37" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -1283,7 +1283,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1586,69 +1586,69 @@
       <c r="L11" s="52"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="47">
         <v>44956</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="33">
+      <c r="D12" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="47">
         <v>44960</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="49">
         <f>DAYS360(C12,E12)+2</f>
         <v>5</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="36" t="s">
+      <c r="H12" s="50"/>
+      <c r="I12" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="L12" s="37"/>
+      <c r="L12" s="52"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="33">
         <v>44963</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="33">
         <v>44967</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12" t="s">
+      <c r="H13" s="54"/>
+      <c r="I13" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="L13" s="13"/>
+      <c r="L13" s="37"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B14" s="6" t="s">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="106">
   <si>
     <t>3주차</t>
   </si>
@@ -417,6 +417,14 @@
   </si>
   <si>
     <t>JS응용 / jQuery 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 레이아웃/상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 레이아웃/상세코딩</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1282,8 +1290,8 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1618,69 +1626,69 @@
       <c r="L12" s="52"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="47">
         <v>44963</v>
       </c>
-      <c r="D13" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="33">
+      <c r="D13" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="47">
         <v>44967</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="54"/>
-      <c r="I13" s="36" t="s">
+      <c r="H13" s="50"/>
+      <c r="I13" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" s="36" t="s">
+      <c r="J13" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="L13" s="37"/>
+      <c r="L13" s="52"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="33">
         <v>44970</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="33">
         <v>44974</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="35">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12" t="s">
+      <c r="H14" s="54"/>
+      <c r="I14" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" s="12" t="s">
+      <c r="J14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="L14" s="13"/>
+      <c r="L14" s="37"/>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B15" s="6" t="s">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="107">
   <si>
     <t>3주차</t>
   </si>
@@ -330,19 +330,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1차 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2차 주제선정/분석설계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2차 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 상세코딩</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -384,10 +376,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>도깨비 PJ v2. / 보그 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>HTML5 + CSS3 응용연습
 Javascript 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -425,6 +413,23 @@
   </si>
   <si>
     <t>1차 레이아웃/상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / 보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 상세코딩
+팀프로젝트 제출(금)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1291,7 +1296,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1517,7 +1522,7 @@
       </c>
       <c r="H9" s="50"/>
       <c r="I9" s="48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J9" s="51" t="s">
         <v>64</v>
@@ -1549,13 +1554,13 @@
       </c>
       <c r="H10" s="50"/>
       <c r="I10" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J10" s="51" t="s">
         <v>81</v>
       </c>
       <c r="K10" s="51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L10" s="52"/>
     </row>
@@ -1583,13 +1588,13 @@
         <v>44951</v>
       </c>
       <c r="I11" s="51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J11" s="51" t="s">
         <v>82</v>
       </c>
       <c r="K11" s="51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L11" s="52"/>
     </row>
@@ -1615,13 +1620,13 @@
       </c>
       <c r="H12" s="50"/>
       <c r="I12" s="51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J12" s="51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K12" s="51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L12" s="52"/>
     </row>
@@ -1647,80 +1652,80 @@
       </c>
       <c r="H13" s="50"/>
       <c r="I13" s="51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K13" s="51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L13" s="52"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="47">
         <v>44970</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="33">
+      <c r="D14" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="47">
         <v>44974</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="49">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="K14" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="L14" s="37"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="33">
         <v>44977</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="33">
         <v>44981</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="35">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="13"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="37"/>
     </row>
     <row r="16" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B16" s="6" t="s">
@@ -1749,10 +1754,10 @@
         <v>61</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L16" s="13"/>
     </row>
@@ -1781,10 +1786,10 @@
         <v>61</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L17" s="13"/>
     </row>
@@ -1810,13 +1815,13 @@
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="L18" s="13"/>
     </row>
@@ -1845,10 +1850,10 @@
         <v>61</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L19" s="13"/>
     </row>
@@ -1877,10 +1882,10 @@
         <v>61</v>
       </c>
       <c r="J20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>89</v>
       </c>
       <c r="L20" s="13"/>
     </row>
@@ -1914,7 +1919,7 @@
         <v>44</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L21" s="13"/>
     </row>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="109">
   <si>
     <t>3주차</t>
   </si>
@@ -176,10 +176,6 @@
     <t>하이브리드앱/PWA</t>
   </si>
   <si>
-    <t>2023-04-04(화) 작품발표회</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>하이브리드앱/PWA
 모바일웹&amp;앱Project</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -188,10 +184,6 @@
     <t>모바일웹&amp;앱Project</t>
   </si>
   <si>
-    <t>2023-05-19(금) 작품발표회</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>웹 프론트엔드 개발</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -204,10 +196,6 @@
     <t>SPA Project</t>
   </si>
   <si>
-    <t>2023-06-30(금) 작품발표회</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2023-07-03(월) 수료식(12:30)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -251,26 +239,6 @@
   </si>
   <si>
     <t>1차 분석 / 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 주제선정 / 분석,설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 분석 / 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 분석 / 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 메인구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 메인구현 리액트</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -330,14 +298,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2차 주제선정/분석설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2차 상세코딩</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -428,8 +388,62 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2차 상세코딩
-팀프로젝트 제출(금)</t>
+    <t>1차 상세코딩
+팀PJ 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 상세코딩
+팀PJ 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 상세코딩
+팀PJ 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 주제선정 / 분석,설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-04-04(화) 작품발표회
+[1차 프로젝트 발표]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 주제선정 / 분석,설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-05-19(금) 작품발표회
+[2차 프로젝트 발표]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-06-30(금) 작품발표회
+[3차 프로젝트 발표]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 상세코딩
+팀프로젝트 제출 및 발표(금)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -932,9 +946,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -982,6 +993,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1295,8 +1309,8 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1317,41 +1331,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
+      <c r="B2" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="26" t="s">
         <v>11</v>
       </c>
@@ -1359,13 +1373,13 @@
         <v>10</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K4" s="26" t="s">
         <v>9</v>
@@ -1403,296 +1417,296 @@
       <c r="L5" s="44"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="46">
         <v>44914</v>
       </c>
-      <c r="D6" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="47">
+      <c r="D6" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="46">
         <v>44918</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="48">
         <f t="shared" ref="F6:F34" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="48" t="s">
+      <c r="H6" s="49"/>
+      <c r="I6" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="52"/>
+      <c r="K6" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="51"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="46">
         <v>44921</v>
       </c>
-      <c r="D7" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="47">
+      <c r="D7" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="46">
         <v>44925</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G7" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="52"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="51"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="46">
         <v>44928</v>
       </c>
-      <c r="D8" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="47">
+      <c r="D8" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="46">
         <v>44932</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="52">
         <v>44929</v>
       </c>
-      <c r="I8" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="52"/>
+      <c r="I8" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="51"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="46">
         <v>44935</v>
       </c>
-      <c r="D9" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="47">
+      <c r="D9" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="46">
         <v>44939</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G9" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="52"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="51"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="46">
         <v>44942</v>
       </c>
-      <c r="D10" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="47">
+      <c r="D10" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="46">
         <v>44946</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G10" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" s="52"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="51"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="46">
         <v>44951</v>
       </c>
-      <c r="D11" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="47">
+      <c r="D11" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="46">
         <v>44953</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="48">
         <f>DAYS360(C11,E11)+1</f>
         <v>3</v>
       </c>
       <c r="G11" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="52">
         <v>44951</v>
       </c>
-      <c r="I11" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="L11" s="52"/>
+      <c r="I11" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="51"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="46">
         <v>44956</v>
       </c>
-      <c r="D12" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="47">
+      <c r="D12" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="46">
         <v>44960</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="48">
         <f>DAYS360(C12,E12)+2</f>
         <v>5</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="L12" s="52"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="51"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="46">
         <v>44963</v>
       </c>
-      <c r="D13" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="47">
+      <c r="D13" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="46">
         <v>44967</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="K13" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13" s="52"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="51"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="46">
         <v>44970</v>
       </c>
-      <c r="D14" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="47">
+      <c r="D14" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="46">
         <v>44974</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="48">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="J14" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="K14" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="L14" s="52"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="51"/>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="A15" s="18"/>
@@ -1715,15 +1729,15 @@
       <c r="G15" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="54"/>
+      <c r="H15" s="53"/>
       <c r="I15" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>105</v>
+        <v>94</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>96</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="L15" s="37"/>
     </row>
@@ -1751,13 +1765,13 @@
         <v>44987</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>83</v>
+        <v>58</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="L16" s="13"/>
     </row>
@@ -1783,13 +1797,13 @@
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>84</v>
+        <v>58</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="L17" s="13"/>
     </row>
@@ -1815,13 +1829,13 @@
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="12" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="L18" s="13"/>
     </row>
@@ -1847,13 +1861,13 @@
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L19" s="13"/>
     </row>
@@ -1879,13 +1893,13 @@
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L20" s="13"/>
     </row>
@@ -1913,13 +1927,13 @@
         <v>45019</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J21" s="45" t="s">
-        <v>44</v>
+        <v>58</v>
+      </c>
+      <c r="J21" s="61" t="s">
+        <v>101</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="L21" s="13"/>
     </row>
@@ -1945,13 +1959,13 @@
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="L22" s="13"/>
     </row>
@@ -1977,13 +1991,13 @@
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="L23" s="13"/>
     </row>
@@ -2005,19 +2019,19 @@
         <v>5</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H24" s="14">
         <v>45041</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="L24" s="15"/>
     </row>
@@ -2039,17 +2053,17 @@
         <v>4</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L25" s="15"/>
     </row>
@@ -2071,17 +2085,17 @@
         <v>5</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L26" s="17"/>
     </row>
@@ -2103,19 +2117,19 @@
         <v>5</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="14">
         <v>45065</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J27" s="45" t="s">
-        <v>47</v>
+        <v>59</v>
+      </c>
+      <c r="J27" s="61" t="s">
+        <v>106</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L27" s="17"/>
     </row>
@@ -2137,17 +2151,17 @@
         <v>5</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L28" s="17"/>
     </row>
@@ -2169,17 +2183,17 @@
         <v>4</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L29" s="17"/>
     </row>
@@ -2201,23 +2215,23 @@
         <v>4</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L30" s="17"/>
     </row>
     <row r="31" spans="2:12" ht="51" customHeight="1">
       <c r="B31" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7">
         <v>45089</v>
@@ -2233,25 +2247,25 @@
         <v>5</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H31" s="14">
         <v>45089</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L31" s="17"/>
     </row>
     <row r="32" spans="2:12" ht="51" customHeight="1">
       <c r="B32" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7">
         <v>45096</v>
@@ -2267,23 +2281,23 @@
         <v>5</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L32" s="17"/>
     </row>
     <row r="33" spans="2:12" ht="51" customHeight="1">
       <c r="B33" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7">
         <v>45103</v>
@@ -2299,25 +2313,25 @@
         <v>5</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H33" s="14">
         <v>45107</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J33" s="45" t="s">
-        <v>51</v>
+        <v>59</v>
+      </c>
+      <c r="J33" s="61" t="s">
+        <v>107</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L33" s="17"/>
     </row>
     <row r="34" spans="2:12" ht="51" customHeight="1" thickBot="1">
       <c r="B34" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C34" s="20">
         <v>45110</v>
@@ -2333,14 +2347,14 @@
         <v>1</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H34" s="29">
         <v>45110</v>
       </c>
       <c r="I34" s="29"/>
       <c r="J34" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K34" s="28"/>
       <c r="L34" s="30"/>
@@ -2354,32 +2368,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
+      <c r="B37" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -970,8 +970,8 @@
     <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -994,8 +994,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1309,8 +1309,8 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1709,71 +1709,71 @@
       <c r="L14" s="51"/>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="46">
         <v>44977</v>
       </c>
-      <c r="D15" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="33">
+      <c r="D15" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="46">
         <v>44981</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="48">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="36" t="s">
+      <c r="H15" s="49"/>
+      <c r="I15" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="37"/>
+      <c r="L15" s="51"/>
     </row>
     <row r="16" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="33">
         <v>44984</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="33">
         <v>44988</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="35">
         <f>DAYS360(C16,E16)-2</f>
         <v>4</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="61">
         <v>44987</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="13"/>
+      <c r="L16" s="37"/>
     </row>
     <row r="17" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B17" s="6" t="s">
@@ -1929,7 +1929,7 @@
       <c r="I21" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="61" t="s">
+      <c r="J21" s="53" t="s">
         <v>101</v>
       </c>
       <c r="K21" s="12" t="s">
@@ -2125,7 +2125,7 @@
       <c r="I27" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J27" s="61" t="s">
+      <c r="J27" s="53" t="s">
         <v>106</v>
       </c>
       <c r="K27" s="12" t="s">
@@ -2321,7 +2321,7 @@
       <c r="I33" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J33" s="61" t="s">
+      <c r="J33" s="53" t="s">
         <v>107</v>
       </c>
       <c r="K33" s="12" t="s">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[프로젝트기반_프론트엔드_221214_박석호강사]\FED-PJ-2022-tom\000.커리큐럼\주단위상세일정엑셀\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="225" windowWidth="19410" windowHeight="8895"/>
   </bookViews>
@@ -450,7 +445,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -994,7 +989,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,7 +1055,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1095,7 +1090,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1310,10 +1305,10 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
@@ -1329,8 +1324,8 @@
     <col min="12" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
-    <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="B2" s="58" t="s">
         <v>68</v>
       </c>
@@ -1345,7 +1340,7 @@
       <c r="K2" s="59"/>
       <c r="L2" s="60"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B3" s="54"/>
       <c r="C3" s="54"/>
       <c r="D3" s="54"/>
@@ -1357,7 +1352,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
@@ -1388,7 +1383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+    <row r="5" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B5" s="38" t="s">
         <v>12</v>
       </c>
@@ -1416,7 +1411,7 @@
       </c>
       <c r="L5" s="44"/>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+    <row r="6" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B6" s="45" t="s">
         <v>16</v>
       </c>
@@ -1448,7 +1443,7 @@
       </c>
       <c r="L6" s="51"/>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+    <row r="7" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B7" s="45" t="s">
         <v>0</v>
       </c>
@@ -1480,7 +1475,7 @@
       </c>
       <c r="L7" s="51"/>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+    <row r="8" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B8" s="45" t="s">
         <v>1</v>
       </c>
@@ -1514,7 +1509,7 @@
       </c>
       <c r="L8" s="51"/>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+    <row r="9" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B9" s="45" t="s">
         <v>2</v>
       </c>
@@ -1546,7 +1541,7 @@
       </c>
       <c r="L9" s="51"/>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+    <row r="10" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B10" s="45" t="s">
         <v>3</v>
       </c>
@@ -1578,7 +1573,7 @@
       </c>
       <c r="L10" s="51"/>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+    <row r="11" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B11" s="45" t="s">
         <v>4</v>
       </c>
@@ -1612,7 +1607,7 @@
       </c>
       <c r="L11" s="51"/>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+    <row r="12" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B12" s="45" t="s">
         <v>5</v>
       </c>
@@ -1644,7 +1639,7 @@
       </c>
       <c r="L12" s="51"/>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+    <row r="13" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B13" s="45" t="s">
         <v>17</v>
       </c>
@@ -1676,7 +1671,7 @@
       </c>
       <c r="L13" s="51"/>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+    <row r="14" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B14" s="45" t="s">
         <v>18</v>
       </c>
@@ -1708,7 +1703,7 @@
       </c>
       <c r="L14" s="51"/>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+    <row r="15" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B15" s="45" t="s">
         <v>19</v>
       </c>
@@ -1740,74 +1735,74 @@
       </c>
       <c r="L15" s="51"/>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="32" t="s">
+    <row r="16" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B16" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="46">
         <v>44984</v>
       </c>
-      <c r="D16" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="33">
+      <c r="D16" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="46">
         <v>44988</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="48">
         <f>DAYS360(C16,E16)-2</f>
         <v>4</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16" s="52">
         <v>44987</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="37"/>
-    </row>
-    <row r="17" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B17" s="6" t="s">
+      <c r="L16" s="51"/>
+    </row>
+    <row r="17" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="A17" s="18"/>
+      <c r="B17" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="33">
         <v>44991</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="33">
         <v>44995</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="35">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12" t="s">
+      <c r="H17" s="61"/>
+      <c r="I17" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="L17" s="13"/>
-    </row>
-    <row r="18" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="L17" s="37"/>
+    </row>
+    <row r="18" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B18" s="6" t="s">
         <v>22</v>
       </c>
@@ -1839,7 +1834,7 @@
       </c>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+    <row r="19" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>23</v>
       </c>
@@ -1871,7 +1866,7 @@
       </c>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+    <row r="20" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B20" s="6" t="s">
         <v>24</v>
       </c>
@@ -1903,7 +1898,7 @@
       </c>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+    <row r="21" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B21" s="6" t="s">
         <v>25</v>
       </c>
@@ -1937,7 +1932,7 @@
       </c>
       <c r="L21" s="13"/>
     </row>
-    <row r="22" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+    <row r="22" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B22" s="6" t="s">
         <v>26</v>
       </c>
@@ -1969,7 +1964,7 @@
       </c>
       <c r="L22" s="13"/>
     </row>
-    <row r="23" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+    <row r="23" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B23" s="6" t="s">
         <v>27</v>
       </c>
@@ -2001,7 +1996,7 @@
       </c>
       <c r="L23" s="13"/>
     </row>
-    <row r="24" spans="2:12" ht="55.5" customHeight="1">
+    <row r="24" spans="1:12" ht="55.5" customHeight="1">
       <c r="B24" s="6" t="s">
         <v>28</v>
       </c>
@@ -2035,7 +2030,7 @@
       </c>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="2:12" ht="57.75" customHeight="1">
+    <row r="25" spans="1:12" ht="57.75" customHeight="1">
       <c r="B25" s="6" t="s">
         <v>29</v>
       </c>
@@ -2067,7 +2062,7 @@
       </c>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="2:12" ht="51" customHeight="1">
+    <row r="26" spans="1:12" ht="51" customHeight="1">
       <c r="B26" s="6" t="s">
         <v>30</v>
       </c>
@@ -2099,7 +2094,7 @@
       </c>
       <c r="L26" s="17"/>
     </row>
-    <row r="27" spans="2:12" ht="51" customHeight="1">
+    <row r="27" spans="1:12" ht="51" customHeight="1">
       <c r="B27" s="6" t="s">
         <v>31</v>
       </c>
@@ -2133,7 +2128,7 @@
       </c>
       <c r="L27" s="17"/>
     </row>
-    <row r="28" spans="2:12" ht="51" customHeight="1">
+    <row r="28" spans="1:12" ht="51" customHeight="1">
       <c r="B28" s="6" t="s">
         <v>32</v>
       </c>
@@ -2165,7 +2160,7 @@
       </c>
       <c r="L28" s="17"/>
     </row>
-    <row r="29" spans="2:12" ht="51" customHeight="1">
+    <row r="29" spans="1:12" ht="51" customHeight="1">
       <c r="B29" s="6" t="s">
         <v>33</v>
       </c>
@@ -2197,7 +2192,7 @@
       </c>
       <c r="L29" s="17"/>
     </row>
-    <row r="30" spans="2:12" ht="51" customHeight="1">
+    <row r="30" spans="1:12" ht="51" customHeight="1">
       <c r="B30" s="6" t="s">
         <v>34</v>
       </c>
@@ -2229,7 +2224,7 @@
       </c>
       <c r="L30" s="17"/>
     </row>
-    <row r="31" spans="2:12" ht="51" customHeight="1">
+    <row r="31" spans="1:12" ht="51" customHeight="1">
       <c r="B31" s="6" t="s">
         <v>50</v>
       </c>
@@ -2263,7 +2258,7 @@
       </c>
       <c r="L31" s="17"/>
     </row>
-    <row r="32" spans="2:12" ht="51" customHeight="1">
+    <row r="32" spans="1:12" ht="51" customHeight="1">
       <c r="B32" s="6" t="s">
         <v>51</v>
       </c>
@@ -2381,7 +2376,7 @@
       <c r="J36" s="56"/>
       <c r="K36" s="56"/>
     </row>
-    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
+    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.65">
       <c r="B37" s="57" t="s">
         <v>67</v>
       </c>
@@ -2415,7 +2410,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2428,7 +2423,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -968,6 +968,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -987,9 +990,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1305,7 +1305,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
@@ -1326,41 +1326,41 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="26" t="s">
         <v>11</v>
       </c>
@@ -1770,69 +1770,69 @@
       <c r="L16" s="51"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="46">
         <v>44991</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="33">
+      <c r="D17" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="46">
         <v>44995</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="48">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="61"/>
-      <c r="I17" s="36" t="s">
+      <c r="H17" s="49"/>
+      <c r="I17" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="36" t="s">
+      <c r="J17" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="L17" s="37"/>
+      <c r="L17" s="51"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="33">
         <v>44998</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="33">
         <v>45002</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12" t="s">
+      <c r="H18" s="54"/>
+      <c r="I18" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="13"/>
+      <c r="L18" s="37"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B19" s="6" t="s">
@@ -2363,32 +2363,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.65">
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -1305,7 +1305,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
@@ -1802,69 +1802,69 @@
       <c r="L17" s="51"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="46">
         <v>44998</v>
       </c>
-      <c r="D18" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="33">
+      <c r="D18" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="46">
         <v>45002</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="36" t="s">
+      <c r="H18" s="49"/>
+      <c r="I18" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="36" t="s">
+      <c r="K18" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="37"/>
+      <c r="L18" s="51"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="33">
         <v>45005</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="D19" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="33">
         <v>45009</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12" t="s">
+      <c r="H19" s="54"/>
+      <c r="I19" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="L19" s="13"/>
+      <c r="L19" s="37"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B20" s="6" t="s">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[프로젝트기반_프론트엔드_221214_박석호강사]\FED-PJ-2022-tom\000.커리큐럼\주단위상세일정엑셀\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="225" windowWidth="19410" windowHeight="8895"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="110">
   <si>
     <t>3주차</t>
   </si>
@@ -305,10 +310,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>JS응용 / jQuery 응용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1차 레이아웃코딩
 프로토타입 제출(금)</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -439,13 +440,22 @@
   <si>
     <t>1차 상세코딩
 팀프로젝트 제출 및 발표(금)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 응용
+Vue JS 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -1055,7 +1065,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1090,7 +1100,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1305,10 +1315,10 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
@@ -1531,7 +1541,7 @@
       </c>
       <c r="H9" s="49"/>
       <c r="I9" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J9" s="50" t="s">
         <v>61</v>
@@ -1563,13 +1573,13 @@
       </c>
       <c r="H10" s="49"/>
       <c r="I10" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J10" s="50" t="s">
         <v>73</v>
       </c>
       <c r="K10" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="51"/>
     </row>
@@ -1597,13 +1607,13 @@
         <v>44951</v>
       </c>
       <c r="I11" s="50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" s="50" t="s">
         <v>74</v>
       </c>
       <c r="K11" s="50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L11" s="51"/>
     </row>
@@ -1629,13 +1639,13 @@
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="50" t="s">
         <v>79</v>
-      </c>
-      <c r="K12" s="50" t="s">
-        <v>80</v>
       </c>
       <c r="L12" s="51"/>
     </row>
@@ -1661,13 +1671,13 @@
       </c>
       <c r="H13" s="49"/>
       <c r="I13" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K13" s="50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L13" s="51"/>
     </row>
@@ -1693,13 +1703,13 @@
       </c>
       <c r="H14" s="49"/>
       <c r="I14" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J14" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L14" s="51"/>
     </row>
@@ -1725,13 +1735,13 @@
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J15" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K15" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L15" s="51"/>
     </row>
@@ -1762,10 +1772,10 @@
         <v>58</v>
       </c>
       <c r="J16" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K16" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L16" s="51"/>
     </row>
@@ -1794,10 +1804,10 @@
         <v>58</v>
       </c>
       <c r="J17" s="50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K17" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L17" s="51"/>
     </row>
@@ -1823,10 +1833,10 @@
       </c>
       <c r="H18" s="49"/>
       <c r="I18" s="50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J18" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K18" s="50" t="s">
         <v>76</v>
@@ -1834,69 +1844,69 @@
       <c r="L18" s="51"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="46">
         <v>45005</v>
       </c>
-      <c r="D19" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="33">
+      <c r="D19" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="46">
         <v>45009</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="54"/>
-      <c r="I19" s="36" t="s">
+      <c r="H19" s="49"/>
+      <c r="I19" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" s="37"/>
+      <c r="J19" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="51"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="33">
         <v>45012</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="D20" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="33">
         <v>45016</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="12" t="s">
+      <c r="H20" s="54"/>
+      <c r="I20" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K20" s="12" t="s">
+      <c r="J20" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="L20" s="13"/>
+      <c r="L20" s="37"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B21" s="6" t="s">
@@ -1925,10 +1935,10 @@
         <v>58</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="L21" s="13"/>
     </row>
@@ -1957,10 +1967,10 @@
         <v>59</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="L22" s="13"/>
     </row>
@@ -2121,7 +2131,7 @@
         <v>59</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>64</v>
@@ -2153,7 +2163,7 @@
         <v>59</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>65</v>
@@ -2185,7 +2195,7 @@
         <v>59</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>65</v>
@@ -2217,7 +2227,7 @@
         <v>59</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>65</v>
@@ -2251,7 +2261,7 @@
         <v>59</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>66</v>
@@ -2283,7 +2293,7 @@
         <v>59</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>66</v>
@@ -2317,7 +2327,7 @@
         <v>59</v>
       </c>
       <c r="J33" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>66</v>
@@ -2376,7 +2386,7 @@
       <c r="J36" s="57"/>
       <c r="K36" s="57"/>
     </row>
-    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.65">
+    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
       <c r="B37" s="58" t="s">
         <v>67</v>
       </c>
@@ -2410,7 +2420,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2423,7 +2433,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[프로젝트기반_프론트엔드_221214_박석호강사]\FED-PJ-2022-tom\000.커리큐럼\주단위상세일정엑셀\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="225" windowWidth="19410" windowHeight="8895"/>
   </bookViews>
@@ -455,7 +450,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -978,9 +973,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1000,6 +992,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1065,7 +1060,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1100,7 +1095,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1315,10 +1310,10 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
@@ -1336,41 +1331,41 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="26" t="s">
         <v>11</v>
       </c>
@@ -1876,71 +1871,71 @@
       <c r="L19" s="51"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="46">
         <v>45012</v>
       </c>
-      <c r="D20" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="33">
+      <c r="D20" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="46">
         <v>45016</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="54"/>
-      <c r="I20" s="36" t="s">
+      <c r="H20" s="49"/>
+      <c r="I20" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="J20" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="L20" s="37"/>
+      <c r="L20" s="51"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="33">
         <v>45019</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D21" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="33">
         <v>45023</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="35">
         <f>DAYS360(C21,E21)+1</f>
         <v>5</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="61">
         <v>45019</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="36" t="s">
         <v>58</v>
       </c>
       <c r="J21" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="L21" s="13"/>
+      <c r="L21" s="37"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B22" s="6" t="s">
@@ -2373,32 +2368,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-    </row>
-    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="58" t="s">
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+    </row>
+    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.65">
+      <c r="B37" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2420,7 +2415,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2433,7 +2428,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -241,10 +241,6 @@
 Javascript 기본</t>
   </si>
   <si>
-    <t>Vue JS 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Vue JS 응용</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -439,6 +435,11 @@
   </si>
   <si>
     <t>JS응용 / jQuery 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 응용
+Vue JS 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -994,7 +995,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1309,8 +1310,8 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
@@ -1332,7 +1333,7 @@
     <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="B2" s="58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
@@ -1444,7 +1445,7 @@
         <v>60</v>
       </c>
       <c r="K6" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" s="51"/>
     </row>
@@ -1476,7 +1477,7 @@
         <v>61</v>
       </c>
       <c r="K7" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L7" s="51"/>
     </row>
@@ -1507,10 +1508,10 @@
         <v>57</v>
       </c>
       <c r="J8" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L8" s="51"/>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="H9" s="49"/>
       <c r="I9" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J9" s="50" t="s">
         <v>61</v>
@@ -1568,13 +1569,13 @@
       </c>
       <c r="H10" s="49"/>
       <c r="I10" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J10" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K10" s="50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L10" s="51"/>
     </row>
@@ -1602,13 +1603,13 @@
         <v>44951</v>
       </c>
       <c r="I11" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J11" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K11" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L11" s="51"/>
     </row>
@@ -1634,13 +1635,13 @@
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="50" t="s">
         <v>78</v>
-      </c>
-      <c r="K12" s="50" t="s">
-        <v>79</v>
       </c>
       <c r="L12" s="51"/>
     </row>
@@ -1666,13 +1667,13 @@
       </c>
       <c r="H13" s="49"/>
       <c r="I13" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J13" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K13" s="50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L13" s="51"/>
     </row>
@@ -1698,13 +1699,13 @@
       </c>
       <c r="H14" s="49"/>
       <c r="I14" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J14" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L14" s="51"/>
     </row>
@@ -1730,13 +1731,13 @@
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J15" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K15" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L15" s="51"/>
     </row>
@@ -1767,10 +1768,10 @@
         <v>58</v>
       </c>
       <c r="J16" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K16" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L16" s="51"/>
     </row>
@@ -1799,10 +1800,10 @@
         <v>58</v>
       </c>
       <c r="J17" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K17" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L17" s="51"/>
     </row>
@@ -1828,13 +1829,13 @@
       </c>
       <c r="H18" s="49"/>
       <c r="I18" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J18" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K18" s="50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L18" s="51"/>
     </row>
@@ -1863,10 +1864,10 @@
         <v>58</v>
       </c>
       <c r="J19" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K19" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L19" s="51"/>
     </row>
@@ -1895,79 +1896,79 @@
         <v>58</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K20" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L20" s="51"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="46">
         <v>45019</v>
       </c>
-      <c r="D21" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="33">
+      <c r="D21" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="46">
         <v>45023</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="48">
         <f>DAYS360(C21,E21)+1</f>
         <v>5</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="61">
+      <c r="H21" s="52">
         <v>45019</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="K21" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="L21" s="37"/>
+      <c r="J21" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" s="51"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="33">
         <v>45026</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="D22" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="33">
         <v>45030</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11" t="s">
+      <c r="H22" s="61"/>
+      <c r="I22" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K22" s="12" t="s">
+      <c r="J22" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="L22" s="13"/>
+      <c r="L22" s="37"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B23" s="6" t="s">
@@ -1994,10 +1995,10 @@
         <v>59</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="L23" s="13"/>
     </row>
@@ -2028,10 +2029,10 @@
         <v>59</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="L24" s="15"/>
     </row>
@@ -2060,10 +2061,10 @@
         <v>59</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L25" s="15"/>
     </row>
@@ -2092,10 +2093,10 @@
         <v>59</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L26" s="17"/>
     </row>
@@ -2126,10 +2127,10 @@
         <v>59</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L27" s="17"/>
     </row>
@@ -2158,10 +2159,10 @@
         <v>59</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L28" s="17"/>
     </row>
@@ -2190,10 +2191,10 @@
         <v>59</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L29" s="17"/>
     </row>
@@ -2222,10 +2223,10 @@
         <v>59</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L30" s="17"/>
     </row>
@@ -2256,10 +2257,10 @@
         <v>59</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L31" s="17"/>
     </row>
@@ -2288,10 +2289,10 @@
         <v>59</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L32" s="17"/>
     </row>
@@ -2322,10 +2323,10 @@
         <v>59</v>
       </c>
       <c r="J33" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L33" s="17"/>
     </row>
@@ -2383,7 +2384,7 @@
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.65">
       <c r="B37" s="57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -811,7 +811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -851,9 +851,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -974,6 +971,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -993,9 +993,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1311,10 +1308,10 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
@@ -1359,7 +1356,7 @@
       <c r="K3" s="54"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -1367,640 +1364,640 @@
       </c>
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="38">
         <v>44909</v>
       </c>
-      <c r="D5" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="39">
+      <c r="D5" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38">
         <v>44911</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="40">
         <f>DAYS360(C5,E5)+1</f>
         <v>3</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="43" t="s">
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="44"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="45">
         <v>44914</v>
       </c>
-      <c r="D6" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="46">
+      <c r="D6" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="45">
         <v>44918</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="47">
         <f t="shared" ref="F6:F34" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="47" t="s">
+      <c r="H6" s="48"/>
+      <c r="I6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="51"/>
+      <c r="L6" s="50"/>
     </row>
     <row r="7" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="45">
         <v>44921</v>
       </c>
-      <c r="D7" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="46">
+      <c r="D7" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="45">
         <v>44925</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="47" t="s">
+      <c r="H7" s="48"/>
+      <c r="I7" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="L7" s="51"/>
+      <c r="L7" s="50"/>
     </row>
     <row r="8" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="45">
         <v>44928</v>
       </c>
-      <c r="D8" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="46">
+      <c r="D8" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="45">
         <v>44932</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="51">
         <v>44929</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="47" t="s">
+      <c r="J8" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="51"/>
+      <c r="L8" s="50"/>
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="45">
         <v>44935</v>
       </c>
-      <c r="D9" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="46">
+      <c r="D9" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="45">
         <v>44939</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="47" t="s">
+      <c r="H9" s="48"/>
+      <c r="I9" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="51"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="45">
         <v>44942</v>
       </c>
-      <c r="D10" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="46">
+      <c r="D10" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="45">
         <v>44946</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="47" t="s">
+      <c r="H10" s="48"/>
+      <c r="I10" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="50" t="s">
+      <c r="J10" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="51"/>
+      <c r="L10" s="50"/>
     </row>
     <row r="11" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="45">
         <v>44951</v>
       </c>
-      <c r="D11" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="46">
+      <c r="D11" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="45">
         <v>44953</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="47">
         <f>DAYS360(C11,E11)+1</f>
         <v>3</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="51">
         <v>44951</v>
       </c>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="50" t="s">
+      <c r="K11" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="51"/>
+      <c r="L11" s="50"/>
     </row>
     <row r="12" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="45">
         <v>44956</v>
       </c>
-      <c r="D12" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="46">
+      <c r="D12" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="45">
         <v>44960</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="47">
         <f>DAYS360(C12,E12)+2</f>
         <v>5</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50" t="s">
+      <c r="H12" s="48"/>
+      <c r="I12" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="50" t="s">
+      <c r="J12" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="50" t="s">
+      <c r="K12" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="51"/>
+      <c r="L12" s="50"/>
     </row>
     <row r="13" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="45">
         <v>44963</v>
       </c>
-      <c r="D13" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="46">
+      <c r="D13" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="45">
         <v>44967</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50" t="s">
+      <c r="H13" s="48"/>
+      <c r="I13" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="47" t="s">
+      <c r="J13" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="50" t="s">
+      <c r="K13" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="L13" s="51"/>
+      <c r="L13" s="50"/>
     </row>
     <row r="14" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="45">
         <v>44970</v>
       </c>
-      <c r="D14" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="46">
+      <c r="D14" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="45">
         <v>44974</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="47">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50" t="s">
+      <c r="H14" s="48"/>
+      <c r="I14" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="J14" s="47" t="s">
+      <c r="J14" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="50" t="s">
+      <c r="K14" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="L14" s="51"/>
+      <c r="L14" s="50"/>
     </row>
     <row r="15" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="45">
         <v>44977</v>
       </c>
-      <c r="D15" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="46">
+      <c r="D15" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="45">
         <v>44981</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="47">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50" t="s">
+      <c r="H15" s="48"/>
+      <c r="I15" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="K15" s="50" t="s">
+      <c r="K15" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="51"/>
+      <c r="L15" s="50"/>
     </row>
     <row r="16" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="45">
         <v>44984</v>
       </c>
-      <c r="D16" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="46">
+      <c r="D16" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="45">
         <v>44988</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="47">
         <f>DAYS360(C16,E16)-2</f>
         <v>4</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="51">
         <v>44987</v>
       </c>
-      <c r="I16" s="50" t="s">
+      <c r="I16" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="50" t="s">
+      <c r="J16" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="K16" s="50" t="s">
+      <c r="K16" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="L16" s="51"/>
+      <c r="L16" s="50"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="45">
         <v>44991</v>
       </c>
-      <c r="D17" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="46">
+      <c r="D17" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="45">
         <v>44995</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="47">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50" t="s">
+      <c r="H17" s="48"/>
+      <c r="I17" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="50" t="s">
+      <c r="J17" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="51"/>
+      <c r="L17" s="50"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="45">
         <v>44998</v>
       </c>
-      <c r="D18" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="46">
+      <c r="D18" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="45">
         <v>45002</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50" t="s">
+      <c r="H18" s="48"/>
+      <c r="I18" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="K18" s="50" t="s">
+      <c r="K18" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="L18" s="51"/>
+      <c r="L18" s="50"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="45">
         <v>45005</v>
       </c>
-      <c r="D19" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="46">
+      <c r="D19" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="45">
         <v>45009</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50" t="s">
+      <c r="H19" s="48"/>
+      <c r="I19" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="47" t="s">
+      <c r="J19" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="K19" s="50" t="s">
+      <c r="K19" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="L19" s="51"/>
+      <c r="L19" s="50"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="45">
         <v>45012</v>
       </c>
-      <c r="D20" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="46">
+      <c r="D20" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="45">
         <v>45016</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50" t="s">
+      <c r="H20" s="48"/>
+      <c r="I20" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="47" t="s">
+      <c r="J20" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="K20" s="50" t="s">
+      <c r="K20" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="L20" s="51"/>
+      <c r="L20" s="50"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="45">
         <v>45019</v>
       </c>
-      <c r="D21" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="46">
+      <c r="D21" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="45">
         <v>45023</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F21" s="47">
         <f>DAYS360(C21,E21)+1</f>
         <v>5</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="52">
+      <c r="H21" s="51">
         <v>45019</v>
       </c>
-      <c r="I21" s="50" t="s">
+      <c r="I21" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="50" t="s">
+      <c r="J21" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="K21" s="50" t="s">
+      <c r="K21" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="L21" s="51"/>
+      <c r="L21" s="50"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="45">
         <v>45026</v>
       </c>
-      <c r="D22" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="33">
+      <c r="D22" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="45">
         <v>45030</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61" t="s">
+      <c r="H22" s="48"/>
+      <c r="I22" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="J22" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="L22" s="37"/>
+      <c r="L22" s="50"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="32">
         <v>45033</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="D23" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="32">
         <v>45037</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11" t="s">
+      <c r="H23" s="53"/>
+      <c r="I23" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="13"/>
+      <c r="L23" s="36"/>
     </row>
     <row r="24" spans="1:12" ht="55.5" customHeight="1">
       <c r="B24" s="6" t="s">
@@ -2022,7 +2019,7 @@
       <c r="G24" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="13">
         <v>45041</v>
       </c>
       <c r="I24" s="11" t="s">
@@ -2034,7 +2031,7 @@
       <c r="K24" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="L24" s="15"/>
+      <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1">
       <c r="B25" s="6" t="s">
@@ -2049,14 +2046,14 @@
       <c r="E25" s="7">
         <v>45051</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="30">
         <f>DAYS360(C25,E25)</f>
         <v>4</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="16"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="11" t="s">
         <v>59</v>
       </c>
@@ -2066,7 +2063,7 @@
       <c r="K25" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="15"/>
+      <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:12" ht="51" customHeight="1">
       <c r="B26" s="6" t="s">
@@ -2088,7 +2085,7 @@
       <c r="G26" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="16"/>
+      <c r="H26" s="15"/>
       <c r="I26" s="11" t="s">
         <v>59</v>
       </c>
@@ -2098,7 +2095,7 @@
       <c r="K26" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="17"/>
+      <c r="L26" s="16"/>
     </row>
     <row r="27" spans="1:12" ht="51" customHeight="1">
       <c r="B27" s="6" t="s">
@@ -2120,19 +2117,19 @@
       <c r="G27" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="13">
         <v>45065</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J27" s="53" t="s">
+      <c r="J27" s="52" t="s">
         <v>104</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="L27" s="17"/>
+      <c r="L27" s="16"/>
     </row>
     <row r="28" spans="1:12" ht="51" customHeight="1">
       <c r="B28" s="6" t="s">
@@ -2154,7 +2151,7 @@
       <c r="G28" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="16"/>
+      <c r="H28" s="15"/>
       <c r="I28" s="11" t="s">
         <v>59</v>
       </c>
@@ -2164,7 +2161,7 @@
       <c r="K28" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="L28" s="17"/>
+      <c r="L28" s="16"/>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1">
       <c r="B29" s="6" t="s">
@@ -2186,7 +2183,7 @@
       <c r="G29" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="16"/>
+      <c r="H29" s="15"/>
       <c r="I29" s="11" t="s">
         <v>59</v>
       </c>
@@ -2196,7 +2193,7 @@
       <c r="K29" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="L29" s="17"/>
+      <c r="L29" s="16"/>
     </row>
     <row r="30" spans="1:12" ht="51" customHeight="1">
       <c r="B30" s="6" t="s">
@@ -2211,14 +2208,14 @@
       <c r="E30" s="7">
         <v>45086</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="30">
         <f>DAYS360(C30,E30)</f>
         <v>4</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="16"/>
+      <c r="H30" s="15"/>
       <c r="I30" s="11" t="s">
         <v>59</v>
       </c>
@@ -2228,7 +2225,7 @@
       <c r="K30" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="L30" s="17"/>
+      <c r="L30" s="16"/>
     </row>
     <row r="31" spans="1:12" ht="51" customHeight="1">
       <c r="B31" s="6" t="s">
@@ -2250,7 +2247,7 @@
       <c r="G31" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="13">
         <v>45089</v>
       </c>
       <c r="I31" s="11" t="s">
@@ -2262,7 +2259,7 @@
       <c r="K31" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="L31" s="17"/>
+      <c r="L31" s="16"/>
     </row>
     <row r="32" spans="1:12" ht="51" customHeight="1">
       <c r="B32" s="6" t="s">
@@ -2284,7 +2281,7 @@
       <c r="G32" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="16"/>
+      <c r="H32" s="15"/>
       <c r="I32" s="11" t="s">
         <v>59</v>
       </c>
@@ -2294,7 +2291,7 @@
       <c r="K32" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="L32" s="17"/>
+      <c r="L32" s="16"/>
     </row>
     <row r="33" spans="2:12" ht="51" customHeight="1">
       <c r="B33" s="6" t="s">
@@ -2316,49 +2313,49 @@
       <c r="G33" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="13">
         <v>45107</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J33" s="53" t="s">
+      <c r="J33" s="52" t="s">
         <v>105</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="L33" s="17"/>
+      <c r="L33" s="16"/>
     </row>
     <row r="34" spans="2:12" ht="51" customHeight="1" thickBot="1">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="19">
         <v>45110</v>
       </c>
-      <c r="D34" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="20">
+      <c r="D34" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="19">
         <v>45110</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="29">
+      <c r="H34" s="28">
         <v>45110</v>
       </c>
-      <c r="I34" s="29"/>
-      <c r="J34" s="21" t="s">
+      <c r="I34" s="28"/>
+      <c r="J34" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K34" s="28"/>
-      <c r="L34" s="30"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
       <c r="C35" s="1"/>
@@ -2382,7 +2379,7 @@
       <c r="J36" s="56"/>
       <c r="K36" s="56"/>
     </row>
-    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.65">
+    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
       <c r="B37" s="57" t="s">
         <v>66</v>
       </c>
@@ -2416,7 +2413,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2429,7 +2426,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[프로젝트기반_프론트엔드_221214_박석호강사]\FED-PJ-2022-tom\000.커리큐럼\주단위상세일정엑셀\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="225" windowWidth="19410" windowHeight="8895"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -451,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -1058,7 +1063,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1093,7 +1098,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -1312,8 +1312,8 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2049,10 +2049,10 @@
         <v>6</v>
       </c>
       <c r="E25" s="7">
-        <v>45051</v>
+        <v>45050</v>
       </c>
       <c r="F25" s="30">
-        <f>DAYS360(C25,E25)</f>
+        <f>DAYS360(C25,E25)+1</f>
         <v>4</v>
       </c>
       <c r="G25" s="10" t="s">
@@ -2182,8 +2182,8 @@
         <v>45079</v>
       </c>
       <c r="F29" s="9">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>DAYS360(C29,E29)+2</f>
+        <v>5</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>46</v>
@@ -2367,7 +2367,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="4">
         <f>SUM(F5:F34)</f>
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[프로젝트기반_프론트엔드_221214_박석호강사]\FED-PJ-2022-tom\000.커리큐럼\주단위상세일정엑셀\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="225" windowWidth="19410" windowHeight="8895"/>
   </bookViews>
@@ -456,7 +451,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -816,7 +811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -925,9 +920,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -998,6 +990,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1063,7 +1061,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1098,7 +1096,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1313,10 +1311,10 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
@@ -1334,41 +1332,41 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="59"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="25" t="s">
         <v>11</v>
       </c>
@@ -1392,651 +1390,651 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="37">
         <v>44909</v>
       </c>
-      <c r="D5" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="38">
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="37">
         <v>44911</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="39">
         <f>DAYS360(C5,E5)+1</f>
         <v>3</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="42" t="s">
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="43"/>
+      <c r="L5" s="42"/>
     </row>
     <row r="6" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="44">
         <v>44914</v>
       </c>
-      <c r="D6" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="45">
+      <c r="D6" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="44">
         <v>44918</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="46">
         <f t="shared" ref="F6:F34" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="46" t="s">
+      <c r="H6" s="47"/>
+      <c r="I6" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="49" t="s">
+      <c r="K6" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="50"/>
+      <c r="L6" s="49"/>
     </row>
     <row r="7" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="44">
         <v>44921</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="45">
+      <c r="D7" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="44">
         <v>44925</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="46" t="s">
+      <c r="H7" s="47"/>
+      <c r="I7" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="49" t="s">
+      <c r="K7" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="L7" s="50"/>
+      <c r="L7" s="49"/>
     </row>
     <row r="8" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="44">
         <v>44928</v>
       </c>
-      <c r="D8" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="45">
+      <c r="D8" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="44">
         <v>44932</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="50">
         <v>44929</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="49" t="s">
+      <c r="K8" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="50"/>
+      <c r="L8" s="49"/>
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="44">
         <v>44935</v>
       </c>
-      <c r="D9" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="45">
+      <c r="D9" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="44">
         <v>44939</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="46" t="s">
+      <c r="H9" s="47"/>
+      <c r="I9" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="49" t="s">
+      <c r="K9" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="50"/>
+      <c r="L9" s="49"/>
     </row>
     <row r="10" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="44">
         <v>44942</v>
       </c>
-      <c r="D10" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="45">
+      <c r="D10" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="44">
         <v>44946</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="46" t="s">
+      <c r="H10" s="47"/>
+      <c r="I10" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="49" t="s">
+      <c r="J10" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="49" t="s">
+      <c r="K10" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="50"/>
+      <c r="L10" s="49"/>
     </row>
     <row r="11" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="44">
         <v>44951</v>
       </c>
-      <c r="D11" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="45">
+      <c r="D11" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="44">
         <v>44953</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="46">
         <f>DAYS360(C11,E11)+1</f>
         <v>3</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="51">
+      <c r="H11" s="50">
         <v>44951</v>
       </c>
-      <c r="I11" s="49" t="s">
+      <c r="I11" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="49" t="s">
+      <c r="K11" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="50"/>
+      <c r="L11" s="49"/>
     </row>
     <row r="12" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="44">
         <v>44956</v>
       </c>
-      <c r="D12" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="45">
+      <c r="D12" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="44">
         <v>44960</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="46">
         <f>DAYS360(C12,E12)+2</f>
         <v>5</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49" t="s">
+      <c r="H12" s="47"/>
+      <c r="I12" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="49" t="s">
+      <c r="J12" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="50"/>
+      <c r="L12" s="49"/>
     </row>
     <row r="13" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="44">
         <v>44963</v>
       </c>
-      <c r="D13" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="45">
+      <c r="D13" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="44">
         <v>44967</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="49" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="46" t="s">
+      <c r="J13" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="49" t="s">
+      <c r="K13" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="L13" s="50"/>
+      <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="44">
         <v>44970</v>
       </c>
-      <c r="D14" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="45">
+      <c r="D14" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="44">
         <v>44974</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="46">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49" t="s">
+      <c r="H14" s="47"/>
+      <c r="I14" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="J14" s="46" t="s">
+      <c r="J14" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="49" t="s">
+      <c r="K14" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="L14" s="50"/>
+      <c r="L14" s="49"/>
     </row>
     <row r="15" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="44">
         <v>44977</v>
       </c>
-      <c r="D15" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="45">
+      <c r="D15" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="44">
         <v>44981</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="46">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49" t="s">
+      <c r="H15" s="47"/>
+      <c r="I15" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="49" t="s">
+      <c r="J15" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="50"/>
+      <c r="L15" s="49"/>
     </row>
     <row r="16" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="44">
         <v>44984</v>
       </c>
-      <c r="D16" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="45">
+      <c r="D16" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="44">
         <v>44988</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="46">
         <f>DAYS360(C16,E16)-2</f>
         <v>4</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="51">
+      <c r="H16" s="50">
         <v>44987</v>
       </c>
-      <c r="I16" s="49" t="s">
+      <c r="I16" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="49" t="s">
+      <c r="J16" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="K16" s="49" t="s">
+      <c r="K16" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="L16" s="50"/>
+      <c r="L16" s="49"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="44">
         <v>44991</v>
       </c>
-      <c r="D17" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="45">
+      <c r="D17" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="44">
         <v>44995</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="46">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49" t="s">
+      <c r="H17" s="47"/>
+      <c r="I17" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="49" t="s">
+      <c r="J17" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="49" t="s">
+      <c r="K17" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="50"/>
+      <c r="L17" s="49"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="44">
         <v>44998</v>
       </c>
-      <c r="D18" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="45">
+      <c r="D18" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="44">
         <v>45002</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="49" t="s">
+      <c r="H18" s="47"/>
+      <c r="I18" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="J18" s="49" t="s">
+      <c r="J18" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="K18" s="49" t="s">
+      <c r="K18" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="L18" s="50"/>
+      <c r="L18" s="49"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="44">
         <v>45005</v>
       </c>
-      <c r="D19" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="45">
+      <c r="D19" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="44">
         <v>45009</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="49" t="s">
+      <c r="H19" s="47"/>
+      <c r="I19" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="46" t="s">
+      <c r="J19" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="L19" s="50"/>
+      <c r="L19" s="49"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="44">
         <v>45012</v>
       </c>
-      <c r="D20" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="45">
+      <c r="D20" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="44">
         <v>45016</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="48"/>
-      <c r="I20" s="49" t="s">
+      <c r="H20" s="47"/>
+      <c r="I20" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="46" t="s">
+      <c r="J20" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="K20" s="49" t="s">
+      <c r="K20" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="L20" s="50"/>
+      <c r="L20" s="49"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="44">
         <v>45019</v>
       </c>
-      <c r="D21" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="45">
+      <c r="D21" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="44">
         <v>45023</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21" s="46">
         <f>DAYS360(C21,E21)+1</f>
         <v>5</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="51">
+      <c r="H21" s="50">
         <v>45019</v>
       </c>
-      <c r="I21" s="49" t="s">
+      <c r="I21" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="49" t="s">
+      <c r="J21" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="K21" s="49" t="s">
+      <c r="K21" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="L21" s="50"/>
+      <c r="L21" s="49"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="44">
         <v>45026</v>
       </c>
-      <c r="D22" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="45">
+      <c r="D22" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="44">
         <v>45030</v>
       </c>
-      <c r="F22" s="47">
+      <c r="F22" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48" t="s">
+      <c r="H22" s="47"/>
+      <c r="I22" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="46" t="s">
+      <c r="J22" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="49" t="s">
+      <c r="K22" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="L22" s="50"/>
+      <c r="L22" s="49"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="44">
         <v>45033</v>
       </c>
-      <c r="D23" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="32">
+      <c r="D23" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="44">
         <v>45037</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53" t="s">
+      <c r="H23" s="47"/>
+      <c r="I23" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="J23" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="K23" s="35" t="s">
+      <c r="K23" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="36"/>
+      <c r="L23" s="49"/>
     </row>
     <row r="24" spans="1:12" ht="55.5" customHeight="1">
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="32">
         <v>45040</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D24" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="32">
         <v>45044</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="60">
         <v>45041</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="L24" s="14"/>
+      <c r="L24" s="61"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1">
       <c r="B25" s="6" t="s">
@@ -2128,7 +2126,7 @@
       <c r="I27" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J27" s="52" t="s">
+      <c r="J27" s="51" t="s">
         <v>104</v>
       </c>
       <c r="K27" s="12" t="s">
@@ -2324,7 +2322,7 @@
       <c r="I33" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J33" s="52" t="s">
+      <c r="J33" s="51" t="s">
         <v>105</v>
       </c>
       <c r="K33" s="12" t="s">
@@ -2371,32 +2369,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-    </row>
-    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="57" t="s">
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+    </row>
+    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.65">
+      <c r="B37" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2418,7 +2416,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2431,7 +2429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[프로젝트기반_프론트엔드_221214_박석호강사]\FED-PJ-2022-tom\000.커리큐럼\주단위상세일정엑셀\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="225" windowWidth="19410" windowHeight="8895"/>
   </bookViews>
@@ -451,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -854,9 +859,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -971,6 +973,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -992,10 +997,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1061,7 +1066,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1096,7 +1101,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1311,10 +1316,10 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
@@ -1359,7 +1364,7 @@
       <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="54" t="s">
@@ -1367,706 +1372,706 @@
       </c>
       <c r="D4" s="54"/>
       <c r="E4" s="54"/>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <v>44909</v>
       </c>
-      <c r="D5" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="37">
+      <c r="D5" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="36">
         <v>44911</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="38">
         <f>DAYS360(C5,E5)+1</f>
         <v>3</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="41" t="s">
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="42"/>
+      <c r="L5" s="41"/>
     </row>
     <row r="6" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="43">
         <v>44914</v>
       </c>
-      <c r="D6" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="44">
+      <c r="D6" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="43">
         <v>44918</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="45">
         <f t="shared" ref="F6:F34" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="45" t="s">
+      <c r="H6" s="46"/>
+      <c r="I6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="49"/>
+      <c r="L6" s="48"/>
     </row>
     <row r="7" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="43">
         <v>44921</v>
       </c>
-      <c r="D7" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="44">
+      <c r="D7" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="43">
         <v>44925</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="45" t="s">
+      <c r="H7" s="46"/>
+      <c r="I7" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="L7" s="49"/>
+      <c r="L7" s="48"/>
     </row>
     <row r="8" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="43">
         <v>44928</v>
       </c>
-      <c r="D8" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="44">
+      <c r="D8" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="43">
         <v>44932</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="49">
         <v>44929</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="48" t="s">
+      <c r="K8" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="49"/>
+      <c r="L8" s="48"/>
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="43">
         <v>44935</v>
       </c>
-      <c r="D9" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="44">
+      <c r="D9" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="43">
         <v>44939</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="45" t="s">
+      <c r="H9" s="46"/>
+      <c r="I9" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="48" t="s">
+      <c r="J9" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="48" t="s">
+      <c r="K9" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="49"/>
+      <c r="L9" s="48"/>
     </row>
     <row r="10" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="43">
         <v>44942</v>
       </c>
-      <c r="D10" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="44">
+      <c r="D10" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="43">
         <v>44946</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="45" t="s">
+      <c r="H10" s="46"/>
+      <c r="I10" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="48" t="s">
+      <c r="J10" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="48" t="s">
+      <c r="K10" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="49"/>
+      <c r="L10" s="48"/>
     </row>
     <row r="11" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="43">
         <v>44951</v>
       </c>
-      <c r="D11" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="44">
+      <c r="D11" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="43">
         <v>44953</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="45">
         <f>DAYS360(C11,E11)+1</f>
         <v>3</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11" s="49">
         <v>44951</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="48" t="s">
+      <c r="J11" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="48" t="s">
+      <c r="K11" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="49"/>
+      <c r="L11" s="48"/>
     </row>
     <row r="12" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="43">
         <v>44956</v>
       </c>
-      <c r="D12" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="44">
+      <c r="D12" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="43">
         <v>44960</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="45">
         <f>DAYS360(C12,E12)+2</f>
         <v>5</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48" t="s">
+      <c r="H12" s="46"/>
+      <c r="I12" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="48" t="s">
+      <c r="J12" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="48" t="s">
+      <c r="K12" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="49"/>
+      <c r="L12" s="48"/>
     </row>
     <row r="13" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="43">
         <v>44963</v>
       </c>
-      <c r="D13" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="44">
+      <c r="D13" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="43">
         <v>44967</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48" t="s">
+      <c r="H13" s="46"/>
+      <c r="I13" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="J13" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="48" t="s">
+      <c r="K13" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="L13" s="49"/>
+      <c r="L13" s="48"/>
     </row>
     <row r="14" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="43">
         <v>44970</v>
       </c>
-      <c r="D14" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="44">
+      <c r="D14" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="43">
         <v>44974</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="45">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48" t="s">
+      <c r="H14" s="46"/>
+      <c r="I14" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="J14" s="45" t="s">
+      <c r="J14" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="L14" s="49"/>
+      <c r="L14" s="48"/>
     </row>
     <row r="15" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="43">
         <v>44977</v>
       </c>
-      <c r="D15" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="44">
+      <c r="D15" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="43">
         <v>44981</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="45">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48" t="s">
+      <c r="H15" s="46"/>
+      <c r="I15" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="K15" s="48" t="s">
+      <c r="K15" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="49"/>
+      <c r="L15" s="48"/>
     </row>
     <row r="16" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="43">
         <v>44984</v>
       </c>
-      <c r="D16" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="44">
+      <c r="D16" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="43">
         <v>44988</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="45">
         <f>DAYS360(C16,E16)-2</f>
         <v>4</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="49">
         <v>44987</v>
       </c>
-      <c r="I16" s="48" t="s">
+      <c r="I16" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="48" t="s">
+      <c r="J16" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="K16" s="48" t="s">
+      <c r="K16" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="L16" s="49"/>
+      <c r="L16" s="48"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="43">
         <v>44991</v>
       </c>
-      <c r="D17" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="44">
+      <c r="D17" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="43">
         <v>44995</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="45">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48" t="s">
+      <c r="H17" s="46"/>
+      <c r="I17" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="48" t="s">
+      <c r="J17" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="48" t="s">
+      <c r="K17" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="49"/>
+      <c r="L17" s="48"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="43">
         <v>44998</v>
       </c>
-      <c r="D18" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="44">
+      <c r="D18" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="43">
         <v>45002</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48" t="s">
+      <c r="H18" s="46"/>
+      <c r="I18" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="J18" s="48" t="s">
+      <c r="J18" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="K18" s="48" t="s">
+      <c r="K18" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="L18" s="49"/>
+      <c r="L18" s="48"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="43">
         <v>45005</v>
       </c>
-      <c r="D19" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="44">
+      <c r="D19" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="43">
         <v>45009</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48" t="s">
+      <c r="H19" s="46"/>
+      <c r="I19" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="45" t="s">
+      <c r="J19" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="K19" s="48" t="s">
+      <c r="K19" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="L19" s="49"/>
+      <c r="L19" s="48"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="43">
         <v>45012</v>
       </c>
-      <c r="D20" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="44">
+      <c r="D20" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="43">
         <v>45016</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48" t="s">
+      <c r="H20" s="46"/>
+      <c r="I20" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="45" t="s">
+      <c r="J20" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="K20" s="48" t="s">
+      <c r="K20" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="L20" s="49"/>
+      <c r="L20" s="48"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="43">
         <v>45019</v>
       </c>
-      <c r="D21" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="44">
+      <c r="D21" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="43">
         <v>45023</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F21" s="45">
         <f>DAYS360(C21,E21)+1</f>
         <v>5</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21" s="49">
         <v>45019</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="48" t="s">
+      <c r="J21" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="K21" s="48" t="s">
+      <c r="K21" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="L21" s="49"/>
+      <c r="L21" s="48"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="43">
         <v>45026</v>
       </c>
-      <c r="D22" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="44">
+      <c r="D22" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="43">
         <v>45030</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47" t="s">
+      <c r="H22" s="46"/>
+      <c r="I22" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="45" t="s">
+      <c r="J22" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="48" t="s">
+      <c r="K22" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="L22" s="49"/>
+      <c r="L22" s="48"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="43">
         <v>45033</v>
       </c>
-      <c r="D23" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="44">
+      <c r="D23" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="43">
         <v>45037</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F23" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47" t="s">
+      <c r="H23" s="46"/>
+      <c r="I23" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="45" t="s">
+      <c r="J23" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="K23" s="48" t="s">
+      <c r="K23" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="49"/>
+      <c r="L23" s="48"/>
     </row>
     <row r="24" spans="1:12" ht="55.5" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="43">
         <v>45040</v>
       </c>
-      <c r="D24" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="32">
+      <c r="D24" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="43">
         <v>45044</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="60">
+      <c r="H24" s="49">
         <v>45041</v>
       </c>
-      <c r="I24" s="52" t="s">
+      <c r="I24" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="J24" s="33" t="s">
+      <c r="J24" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="K24" s="35" t="s">
+      <c r="K24" s="47" t="s">
         <v>108</v>
       </c>
       <c r="L24" s="61"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1">
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="31">
         <v>45047</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="D25" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="31">
         <v>45050</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="33">
         <f>DAYS360(C25,E25)+1</f>
         <v>4</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="11" t="s">
+      <c r="H25" s="60"/>
+      <c r="I25" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="14"/>
+      <c r="L25" s="52"/>
     </row>
     <row r="26" spans="1:12" ht="51" customHeight="1">
       <c r="B26" s="6" t="s">
@@ -2088,7 +2093,7 @@
       <c r="G26" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="15"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="11" t="s">
         <v>59</v>
       </c>
@@ -2098,7 +2103,7 @@
       <c r="K26" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="16"/>
+      <c r="L26" s="15"/>
     </row>
     <row r="27" spans="1:12" ht="51" customHeight="1">
       <c r="B27" s="6" t="s">
@@ -2126,13 +2131,13 @@
       <c r="I27" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J27" s="51" t="s">
+      <c r="J27" s="50" t="s">
         <v>104</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="L27" s="16"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="1:12" ht="51" customHeight="1">
       <c r="B28" s="6" t="s">
@@ -2154,7 +2159,7 @@
       <c r="G28" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="15"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="11" t="s">
         <v>59</v>
       </c>
@@ -2164,7 +2169,7 @@
       <c r="K28" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="L28" s="16"/>
+      <c r="L28" s="15"/>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1">
       <c r="B29" s="6" t="s">
@@ -2186,7 +2191,7 @@
       <c r="G29" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="15"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="11" t="s">
         <v>59</v>
       </c>
@@ -2196,7 +2201,7 @@
       <c r="K29" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="L29" s="16"/>
+      <c r="L29" s="15"/>
     </row>
     <row r="30" spans="1:12" ht="51" customHeight="1">
       <c r="B30" s="6" t="s">
@@ -2211,14 +2216,14 @@
       <c r="E30" s="7">
         <v>45086</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="29">
         <f>DAYS360(C30,E30)</f>
         <v>4</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="15"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="11" t="s">
         <v>59</v>
       </c>
@@ -2228,7 +2233,7 @@
       <c r="K30" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="L30" s="16"/>
+      <c r="L30" s="15"/>
     </row>
     <row r="31" spans="1:12" ht="51" customHeight="1">
       <c r="B31" s="6" t="s">
@@ -2262,7 +2267,7 @@
       <c r="K31" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="L31" s="16"/>
+      <c r="L31" s="15"/>
     </row>
     <row r="32" spans="1:12" ht="51" customHeight="1">
       <c r="B32" s="6" t="s">
@@ -2284,7 +2289,7 @@
       <c r="G32" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="15"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="11" t="s">
         <v>59</v>
       </c>
@@ -2294,7 +2299,7 @@
       <c r="K32" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="L32" s="16"/>
+      <c r="L32" s="15"/>
     </row>
     <row r="33" spans="2:12" ht="51" customHeight="1">
       <c r="B33" s="6" t="s">
@@ -2322,43 +2327,43 @@
       <c r="I33" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J33" s="51" t="s">
+      <c r="J33" s="50" t="s">
         <v>105</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="L33" s="16"/>
+      <c r="L33" s="15"/>
     </row>
     <row r="34" spans="2:12" ht="51" customHeight="1" thickBot="1">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="18">
         <v>45110</v>
       </c>
-      <c r="D34" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="19">
+      <c r="D34" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="18">
         <v>45110</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34" s="27">
         <v>45110</v>
       </c>
-      <c r="I34" s="28"/>
-      <c r="J34" s="20" t="s">
+      <c r="I34" s="27"/>
+      <c r="J34" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="K34" s="27"/>
-      <c r="L34" s="29"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="28"/>
     </row>
     <row r="35" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
       <c r="C35" s="1"/>
@@ -2382,7 +2387,7 @@
       <c r="J36" s="55"/>
       <c r="K36" s="55"/>
     </row>
-    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.65">
+    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
       <c r="B37" s="56" t="s">
         <v>66</v>
       </c>
@@ -2416,7 +2421,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2429,7 +2434,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -196,10 +196,6 @@
     <t>SPA Project</t>
   </si>
   <si>
-    <t>2023-07-03(월) 수료식(12:30)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>27주차</t>
   </si>
   <si>
@@ -258,10 +254,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>※ 휴일: 1/23,1/24(설연휴), 3/1(삼일절), 5/5(어린이날), 6/6(현충일)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 기반 프론트엔드(React,Vue) 웹&amp;앱 SW개발자 양성과정 주별 상세일정</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -450,6 +442,14 @@
   <si>
     <t>JS응용 / jQuery 응용
 Vue JS 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 휴일: 1/23,1/24(설연휴), 3/1(삼일절), 5/5(어린이날),5/29(부처님오신날:대체휴일), 6/6(현충일)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-07-04(화) 수료식(12:30)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -591,12 +591,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -604,6 +598,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,7 +816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -904,9 +904,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -914,66 +911,69 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -997,10 +997,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1315,8 +1312,8 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1338,7 +1335,7 @@
     <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="B2" s="57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="58"/>
       <c r="D2" s="58"/>
@@ -1379,13 +1376,13 @@
         <v>10</v>
       </c>
       <c r="H4" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="J4" s="24" t="s">
         <v>55</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>56</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>9</v>
@@ -1395,683 +1392,683 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="34">
         <v>44909</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="36">
+      <c r="D5" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="34">
         <v>44911</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="36">
         <f>DAYS360(C5,E5)+1</f>
         <v>3</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="40" t="s">
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="41"/>
+      <c r="L5" s="39"/>
     </row>
     <row r="6" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="41">
         <v>44914</v>
       </c>
-      <c r="D6" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="43">
+      <c r="D6" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="41">
         <v>44918</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="43">
         <f t="shared" ref="F6:F34" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="48"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="46"/>
     </row>
     <row r="7" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="41">
         <v>44921</v>
       </c>
-      <c r="D7" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="43">
+      <c r="D7" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="41">
         <v>44925</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="48"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="46"/>
     </row>
     <row r="8" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="41">
         <v>44928</v>
       </c>
-      <c r="D8" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="43">
+      <c r="D8" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="41">
         <v>44932</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="47">
         <v>44929</v>
       </c>
-      <c r="I8" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="47" t="s">
+      <c r="I8" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="48"/>
+      <c r="K8" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="46"/>
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="41">
         <v>44935</v>
       </c>
-      <c r="D9" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="43">
+      <c r="D9" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="41">
         <v>44939</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="47" t="s">
+      <c r="H9" s="44"/>
+      <c r="I9" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="48"/>
+      <c r="L9" s="46"/>
     </row>
     <row r="10" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="41">
         <v>44942</v>
       </c>
-      <c r="D10" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="43">
+      <c r="D10" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="41">
         <v>44946</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="K10" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="48"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="41">
         <v>44951</v>
       </c>
-      <c r="D11" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="43">
+      <c r="D11" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="41">
         <v>44953</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="43">
         <f>DAYS360(C11,E11)+1</f>
         <v>3</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="47">
         <v>44951</v>
       </c>
-      <c r="I11" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="L11" s="48"/>
+      <c r="I11" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="46"/>
     </row>
     <row r="12" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="41">
         <v>44956</v>
       </c>
-      <c r="D12" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="43">
+      <c r="D12" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="41">
         <v>44960</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="43">
         <f>DAYS360(C12,E12)+2</f>
         <v>5</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="46"/>
-      <c r="I12" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="47" t="s">
+      <c r="H12" s="44"/>
+      <c r="I12" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="48"/>
+      <c r="J12" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="46"/>
     </row>
     <row r="13" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="41">
         <v>44963</v>
       </c>
-      <c r="D13" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="43">
+      <c r="D13" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="41">
         <v>44967</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" s="48"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="41">
         <v>44970</v>
       </c>
-      <c r="D14" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="43">
+      <c r="D14" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="41">
         <v>44974</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="43">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="48"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="46"/>
     </row>
     <row r="15" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="41">
         <v>44977</v>
       </c>
-      <c r="D15" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="43">
+      <c r="D15" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="41">
         <v>44981</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="43">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="47" t="s">
+      <c r="H15" s="44"/>
+      <c r="I15" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="L15" s="48"/>
+      <c r="K15" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="46"/>
     </row>
     <row r="16" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="41">
         <v>44984</v>
       </c>
-      <c r="D16" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="43">
+      <c r="D16" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="41">
         <v>44988</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="43">
         <f>DAYS360(C16,E16)-2</f>
         <v>4</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="47">
         <v>44987</v>
       </c>
-      <c r="I16" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="K16" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="L16" s="48"/>
+      <c r="I16" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="46"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="41">
         <v>44991</v>
       </c>
-      <c r="D17" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="43">
+      <c r="D17" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="41">
         <v>44995</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="43">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="46"/>
-      <c r="I17" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="K17" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="48"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="46"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="41">
         <v>44998</v>
       </c>
-      <c r="D18" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="43">
+      <c r="D18" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="41">
         <v>45002</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="K18" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="L18" s="48"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" s="46"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="43">
+      <c r="C19" s="41">
         <v>45005</v>
       </c>
-      <c r="D19" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="43">
+      <c r="D19" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="41">
         <v>45009</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="L19" s="48"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" s="46"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="41">
         <v>45012</v>
       </c>
-      <c r="D20" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="43">
+      <c r="D20" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="41">
         <v>45016</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="K20" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="L20" s="48"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="L20" s="46"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="41">
         <v>45019</v>
       </c>
-      <c r="D21" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="43">
+      <c r="D21" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="41">
         <v>45023</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="43">
         <f>DAYS360(C21,E21)+1</f>
         <v>5</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="49">
+      <c r="H21" s="47">
         <v>45019</v>
       </c>
-      <c r="I21" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="K21" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="L21" s="48"/>
+      <c r="I21" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="L21" s="46"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="43">
+      <c r="C22" s="41">
         <v>45026</v>
       </c>
-      <c r="D22" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="43">
+      <c r="D22" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="41">
         <v>45030</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="J22" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="K22" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="L22" s="48"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="L22" s="46"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="43">
+      <c r="C23" s="41">
         <v>45033</v>
       </c>
-      <c r="D23" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="43">
+      <c r="D23" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="41">
         <v>45037</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="J23" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="K23" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="L23" s="48"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23" s="46"/>
     </row>
     <row r="24" spans="1:12" ht="55.5" customHeight="1">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="41">
         <v>45040</v>
       </c>
-      <c r="D24" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="43">
+      <c r="D24" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="41">
         <v>45044</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="49">
+      <c r="H24" s="47">
         <v>45041</v>
       </c>
-      <c r="I24" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="J24" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="K24" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="L24" s="61"/>
+      <c r="I24" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="52"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1">
       <c r="A25" s="16"/>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="30">
         <v>45047</v>
       </c>
-      <c r="D25" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="31">
+      <c r="D25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="30">
         <v>45050</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="60">
         <f>DAYS360(C25,E25)+1</f>
         <v>4</v>
       </c>
       <c r="G25" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="60"/>
-      <c r="I25" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="J25" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="K25" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="L25" s="52"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="L25" s="50"/>
     </row>
     <row r="26" spans="1:12" ht="51" customHeight="1">
       <c r="B26" s="6" t="s">
@@ -2095,13 +2092,13 @@
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L26" s="15"/>
     </row>
@@ -2129,13 +2126,13 @@
         <v>45065</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="J27" s="50" t="s">
-        <v>104</v>
+        <v>58</v>
+      </c>
+      <c r="J27" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L27" s="15"/>
     </row>
@@ -2161,13 +2158,13 @@
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L28" s="15"/>
     </row>
@@ -2176,7 +2173,7 @@
         <v>33</v>
       </c>
       <c r="C29" s="7">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>6</v>
@@ -2184,22 +2181,22 @@
       <c r="E29" s="7">
         <v>45079</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="60">
         <f>DAYS360(C29,E29)+2</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>46</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L29" s="15"/>
     </row>
@@ -2216,7 +2213,7 @@
       <c r="E30" s="7">
         <v>45086</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="60">
         <f>DAYS360(C30,E30)</f>
         <v>4</v>
       </c>
@@ -2225,19 +2222,19 @@
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L30" s="15"/>
     </row>
     <row r="31" spans="1:12" ht="51" customHeight="1">
       <c r="B31" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="7">
         <v>45089</v>
@@ -2259,19 +2256,19 @@
         <v>45089</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L31" s="15"/>
     </row>
     <row r="32" spans="1:12" ht="51" customHeight="1">
       <c r="B32" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>45096</v>
@@ -2291,19 +2288,19 @@
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L32" s="15"/>
     </row>
     <row r="33" spans="2:12" ht="51" customHeight="1">
       <c r="B33" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="7">
         <v>45103</v>
@@ -2325,19 +2322,19 @@
         <v>45107</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="J33" s="50" t="s">
-        <v>105</v>
+        <v>58</v>
+      </c>
+      <c r="J33" s="48" t="s">
+        <v>103</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L33" s="15"/>
     </row>
     <row r="34" spans="2:12" ht="51" customHeight="1" thickBot="1">
       <c r="B34" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="18">
         <v>45110</v>
@@ -2346,21 +2343,21 @@
         <v>6</v>
       </c>
       <c r="E34" s="18">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="F34" s="20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>48</v>
       </c>
       <c r="H34" s="27">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="I34" s="27"/>
       <c r="J34" s="19" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="K34" s="26"/>
       <c r="L34" s="28"/>
@@ -2389,7 +2386,7 @@
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
       <c r="B37" s="56" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="C37" s="56"/>
       <c r="D37" s="56"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -816,7 +816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -967,13 +967,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -997,7 +997,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1312,8 +1318,8 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2035,72 +2041,72 @@
       <c r="K24" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="L24" s="52"/>
+      <c r="L24" s="51"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="41">
         <v>45047</v>
       </c>
-      <c r="D25" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="30">
+      <c r="D25" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="41">
         <v>45050</v>
       </c>
-      <c r="F25" s="60">
+      <c r="F25" s="43">
         <f>DAYS360(C25,E25)+1</f>
         <v>4</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="49" t="s">
+      <c r="H25" s="62"/>
+      <c r="I25" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="31" t="s">
+      <c r="J25" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="K25" s="32" t="s">
+      <c r="K25" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="L25" s="50"/>
+      <c r="L25" s="51"/>
     </row>
     <row r="26" spans="1:12" ht="51" customHeight="1">
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="30">
         <v>45054</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="D26" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="30">
         <v>45058</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="60">
         <f>DAYS360(C26,E26)+1</f>
         <v>5</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="11" t="s">
+      <c r="H26" s="50"/>
+      <c r="I26" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="L26" s="15"/>
+      <c r="L26" s="61"/>
     </row>
     <row r="27" spans="1:12" ht="51" customHeight="1">
       <c r="B27" s="6" t="s">
@@ -2181,7 +2187,7 @@
       <c r="E29" s="7">
         <v>45079</v>
       </c>
-      <c r="F29" s="60">
+      <c r="F29" s="52">
         <f>DAYS360(C29,E29)+2</f>
         <v>4</v>
       </c>
@@ -2213,7 +2219,7 @@
       <c r="E30" s="7">
         <v>45086</v>
       </c>
-      <c r="F30" s="60">
+      <c r="F30" s="52">
         <f>DAYS360(C30,E30)</f>
         <v>4</v>
       </c>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[프로젝트기반_프론트엔드_221214_박석호강사]\FED-PJ-2022-tom\000.커리큐럼\주단위상세일정엑셀\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="225" windowWidth="19410" windowHeight="8895"/>
   </bookViews>
@@ -456,7 +451,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -816,7 +811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -967,13 +962,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -997,14 +998,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1069,7 +1067,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1104,7 +1102,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1318,11 +1316,11 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
@@ -1340,41 +1338,41 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="24" t="s">
         <v>11</v>
       </c>
@@ -2041,7 +2039,7 @@
       <c r="K24" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="L24" s="51"/>
+      <c r="L24" s="50"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1">
       <c r="B25" s="40" t="s">
@@ -2063,7 +2061,7 @@
       <c r="G25" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="62"/>
+      <c r="H25" s="54"/>
       <c r="I25" s="44" t="s">
         <v>58</v>
       </c>
@@ -2073,74 +2071,74 @@
       <c r="K25" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="L25" s="51"/>
+      <c r="L25" s="50"/>
     </row>
     <row r="26" spans="1:12" ht="51" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="41">
         <v>45054</v>
       </c>
-      <c r="D26" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="30">
+      <c r="D26" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="41">
         <v>45058</v>
       </c>
-      <c r="F26" s="60">
+      <c r="F26" s="43">
         <f>DAYS360(C26,E26)+1</f>
         <v>5</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="50"/>
-      <c r="I26" s="49" t="s">
+      <c r="H26" s="54"/>
+      <c r="I26" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="K26" s="32" t="s">
+      <c r="K26" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="L26" s="61"/>
+      <c r="L26" s="63"/>
     </row>
     <row r="27" spans="1:12" ht="51" customHeight="1">
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="30">
         <v>45061</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="D27" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="30">
         <v>45065</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="52">
         <f>DAYS360(C27,E27)+1</f>
         <v>5</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="62">
         <v>45065</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="49" t="s">
         <v>58</v>
       </c>
       <c r="J27" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="L27" s="15"/>
+      <c r="L27" s="53"/>
     </row>
     <row r="28" spans="1:12" ht="51" customHeight="1">
       <c r="B28" s="6" t="s">
@@ -2187,7 +2185,7 @@
       <c r="E29" s="7">
         <v>45079</v>
       </c>
-      <c r="F29" s="52">
+      <c r="F29" s="51">
         <f>DAYS360(C29,E29)+2</f>
         <v>4</v>
       </c>
@@ -2219,7 +2217,7 @@
       <c r="E30" s="7">
         <v>45086</v>
       </c>
-      <c r="F30" s="52">
+      <c r="F30" s="51">
         <f>DAYS360(C30,E30)</f>
         <v>4</v>
       </c>
@@ -2377,32 +2375,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-    </row>
-    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="56" t="s">
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+    </row>
+    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.65">
+      <c r="B37" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2424,7 +2422,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2437,7 +2435,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[프로젝트기반_프론트엔드_221214_박석호강사]\FED-PJ-2022-tom\000.커리큐럼\주단위상세일정엑셀\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="225" windowWidth="19410" windowHeight="8895"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="112">
   <si>
     <t>3주차</t>
   </si>
@@ -445,13 +450,20 @@
   </si>
   <si>
     <t>2023-07-04(화) 수료식(12:30)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC PJ</t>
+  </si>
+  <si>
+    <t>DC PJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -977,6 +989,12 @@
     <xf numFmtId="178" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -997,12 +1015,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1067,7 +1079,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1102,7 +1114,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1316,11 +1328,11 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
@@ -1338,41 +1350,41 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="63"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="24" t="s">
         <v>11</v>
       </c>
@@ -2103,74 +2115,74 @@
       <c r="K26" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="L26" s="63"/>
+      <c r="L26" s="55"/>
     </row>
     <row r="27" spans="1:12" ht="51" customHeight="1">
-      <c r="A27" s="16"/>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="41">
         <v>45061</v>
       </c>
-      <c r="D27" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="30">
+      <c r="D27" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="41">
         <v>45065</v>
       </c>
-      <c r="F27" s="52">
+      <c r="F27" s="43">
         <f>DAYS360(C27,E27)+1</f>
         <v>5</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="62">
+      <c r="H27" s="47">
         <v>45065</v>
       </c>
-      <c r="I27" s="49" t="s">
+      <c r="I27" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="48" t="s">
+      <c r="J27" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="K27" s="32" t="s">
+      <c r="K27" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="L27" s="53"/>
+      <c r="L27" s="55"/>
     </row>
     <row r="28" spans="1:12" ht="51" customHeight="1">
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="30">
         <v>45068</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="7">
+      <c r="D28" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="30">
         <v>45072</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J28" s="8" t="s">
+      <c r="H28" s="56"/>
+      <c r="I28" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="J28" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="L28" s="15"/>
+      <c r="L28" s="53"/>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1">
       <c r="B29" s="6" t="s">
@@ -2194,7 +2206,7 @@
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="11" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>99</v>
@@ -2226,7 +2238,7 @@
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="11" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>99</v>
@@ -2260,7 +2272,7 @@
         <v>45089</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>100</v>
@@ -2292,7 +2304,7 @@
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="11" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>101</v>
@@ -2326,7 +2338,7 @@
         <v>45107</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="J33" s="48" t="s">
         <v>103</v>
@@ -2375,32 +2387,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-    </row>
-    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.65">
-      <c r="B37" s="58" t="s">
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+    </row>
+    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
+      <c r="B37" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2422,7 +2434,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2435,7 +2447,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[프로젝트기반_프론트엔드_221214_박석호강사]\FED-PJ-2022-tom\000.커리큐럼\주단위상세일정엑셀\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="225" windowWidth="19410" windowHeight="8895"/>
   </bookViews>
@@ -463,7 +458,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -1079,7 +1074,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1114,7 +1109,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1328,11 +1323,11 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
@@ -2152,69 +2147,69 @@
       <c r="L27" s="55"/>
     </row>
     <row r="28" spans="1:12" ht="51" customHeight="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="41">
         <v>45068</v>
       </c>
-      <c r="D28" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="30">
+      <c r="D28" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="41">
         <v>45072</v>
       </c>
-      <c r="F28" s="52">
+      <c r="F28" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="56"/>
-      <c r="I28" s="49" t="s">
+      <c r="H28" s="54"/>
+      <c r="I28" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="L28" s="53"/>
+      <c r="L28" s="55"/>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1">
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="30">
         <v>45076</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="D29" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="30">
         <v>45079</v>
       </c>
-      <c r="F29" s="51">
+      <c r="F29" s="52">
         <f>DAYS360(C29,E29)+2</f>
         <v>4</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="11" t="s">
+      <c r="H29" s="56"/>
+      <c r="I29" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="L29" s="15"/>
+      <c r="L29" s="53"/>
     </row>
     <row r="30" spans="1:12" ht="51" customHeight="1">
       <c r="B30" s="6" t="s">
@@ -2400,7 +2395,7 @@
       <c r="J36" s="59"/>
       <c r="K36" s="59"/>
     </row>
-    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
+    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.65">
       <c r="B37" s="60" t="s">
         <v>108</v>
       </c>
@@ -2434,7 +2429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2447,7 +2442,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[프로젝트기반_프론트엔드_221214_박석호강사]\FED-PJ-2022-tom\000.커리큐럼\주단위상세일정엑셀\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="225" windowWidth="19410" windowHeight="8895"/>
   </bookViews>
@@ -458,7 +463,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -560,7 +565,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,12 +608,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -818,7 +817,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,9 +969,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1074,7 +1070,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1109,7 +1105,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1324,10 +1320,10 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
@@ -1345,41 +1341,41 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="24" t="s">
         <v>11</v>
       </c>
@@ -2068,7 +2064,7 @@
       <c r="G25" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="54"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="44" t="s">
         <v>58</v>
       </c>
@@ -2100,7 +2096,7 @@
       <c r="G26" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="54"/>
+      <c r="H26" s="53"/>
       <c r="I26" s="44" t="s">
         <v>58</v>
       </c>
@@ -2110,7 +2106,7 @@
       <c r="K26" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="L26" s="55"/>
+      <c r="L26" s="54"/>
     </row>
     <row r="27" spans="1:12" ht="51" customHeight="1">
       <c r="B27" s="40" t="s">
@@ -2144,7 +2140,7 @@
       <c r="K27" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="L27" s="55"/>
+      <c r="L27" s="54"/>
     </row>
     <row r="28" spans="1:12" ht="51" customHeight="1">
       <c r="B28" s="40" t="s">
@@ -2166,7 +2162,7 @@
       <c r="G28" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="54"/>
+      <c r="H28" s="53"/>
       <c r="I28" s="44" t="s">
         <v>111</v>
       </c>
@@ -2176,72 +2172,72 @@
       <c r="K28" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="L28" s="55"/>
+      <c r="L28" s="54"/>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="41">
         <v>45076</v>
       </c>
-      <c r="D29" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="30">
+      <c r="D29" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="41">
         <v>45079</v>
       </c>
-      <c r="F29" s="52">
+      <c r="F29" s="43">
         <f>DAYS360(C29,E29)+2</f>
         <v>4</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="56"/>
-      <c r="I29" s="49" t="s">
+      <c r="H29" s="53"/>
+      <c r="I29" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="J29" s="31" t="s">
+      <c r="J29" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="K29" s="32" t="s">
+      <c r="K29" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="L29" s="53"/>
+      <c r="L29" s="54"/>
     </row>
     <row r="30" spans="1:12" ht="51" customHeight="1">
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="30">
         <v>45082</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="7">
+      <c r="D30" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="30">
         <v>45086</v>
       </c>
       <c r="F30" s="51">
         <f>DAYS360(C30,E30)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="11" t="s">
+      <c r="H30" s="55"/>
+      <c r="I30" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="L30" s="15"/>
+      <c r="L30" s="52"/>
     </row>
     <row r="31" spans="1:12" ht="51" customHeight="1">
       <c r="B31" s="6" t="s">
@@ -2382,32 +2378,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-    </row>
-    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.65">
-      <c r="B37" s="60" t="s">
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+    </row>
+    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
+      <c r="B37" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2429,7 +2425,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2442,7 +2438,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -983,9 +983,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1005,6 +1002,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1320,7 +1320,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1341,41 +1341,41 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="24" t="s">
         <v>11</v>
       </c>
@@ -2207,71 +2207,71 @@
       <c r="L29" s="54"/>
     </row>
     <row r="30" spans="1:12" ht="51" customHeight="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="41">
         <v>45082</v>
       </c>
-      <c r="D30" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="30">
+      <c r="D30" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="41">
         <v>45086</v>
       </c>
-      <c r="F30" s="51">
+      <c r="F30" s="43">
         <f>DAYS360(C30,E30)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="55"/>
-      <c r="I30" s="49" t="s">
+      <c r="H30" s="53"/>
+      <c r="I30" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="J30" s="31" t="s">
+      <c r="J30" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="K30" s="32" t="s">
+      <c r="K30" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="L30" s="52"/>
+      <c r="L30" s="54"/>
     </row>
     <row r="31" spans="1:12" ht="51" customHeight="1">
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="30">
         <v>45089</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="D31" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="30">
         <v>45093</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="62">
         <v>45089</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="L31" s="15"/>
+      <c r="L31" s="52"/>
     </row>
     <row r="32" spans="1:12" ht="51" customHeight="1">
       <c r="B32" s="6" t="s">
@@ -2378,32 +2378,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -817,7 +817,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -860,9 +860,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1004,7 +1001,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1320,7 +1317,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1341,969 +1338,969 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="24" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="33">
         <v>44909</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="34">
+      <c r="D5" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="33">
         <v>44911</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="35">
         <f>DAYS360(C5,E5)+1</f>
         <v>3</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="38" t="s">
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="39"/>
+      <c r="L5" s="38"/>
     </row>
     <row r="6" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="40">
         <v>44914</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="41">
+      <c r="D6" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="40">
         <v>44918</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="42">
         <f t="shared" ref="F6:F34" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="42" t="s">
+      <c r="H6" s="43"/>
+      <c r="I6" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="46"/>
+      <c r="L6" s="45"/>
     </row>
     <row r="7" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="40">
         <v>44921</v>
       </c>
-      <c r="D7" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="41">
+      <c r="D7" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="40">
         <v>44925</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="42" t="s">
+      <c r="H7" s="43"/>
+      <c r="I7" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="45" t="s">
+      <c r="K7" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="46"/>
+      <c r="L7" s="45"/>
     </row>
     <row r="8" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="40">
         <v>44928</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="41">
+      <c r="D8" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="40">
         <v>44932</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="46">
         <v>44929</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="45" t="s">
+      <c r="K8" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="46"/>
+      <c r="L8" s="45"/>
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="40">
         <v>44935</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="41">
+      <c r="D9" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="40">
         <v>44939</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="42" t="s">
+      <c r="H9" s="43"/>
+      <c r="I9" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="45" t="s">
+      <c r="K9" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="46"/>
+      <c r="L9" s="45"/>
     </row>
     <row r="10" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="40">
         <v>44942</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="41">
+      <c r="D10" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="40">
         <v>44946</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="42" t="s">
+      <c r="H10" s="43"/>
+      <c r="I10" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="J10" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="45" t="s">
+      <c r="K10" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="46"/>
+      <c r="L10" s="45"/>
     </row>
     <row r="11" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="40">
         <v>44951</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="41">
+      <c r="D11" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="40">
         <v>44953</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="42">
         <f>DAYS360(C11,E11)+1</f>
         <v>3</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="46">
         <v>44951</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="K11" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="46"/>
+      <c r="L11" s="45"/>
     </row>
     <row r="12" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="40">
         <v>44956</v>
       </c>
-      <c r="D12" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="41">
+      <c r="D12" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="40">
         <v>44960</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="42">
         <f>DAYS360(C12,E12)+2</f>
         <v>5</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45" t="s">
+      <c r="H12" s="43"/>
+      <c r="I12" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="45" t="s">
+      <c r="K12" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="46"/>
+      <c r="L12" s="45"/>
     </row>
     <row r="13" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="40">
         <v>44963</v>
       </c>
-      <c r="D13" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="41">
+      <c r="D13" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="40">
         <v>44967</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45" t="s">
+      <c r="H13" s="43"/>
+      <c r="I13" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J13" s="42" t="s">
+      <c r="J13" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="45" t="s">
+      <c r="K13" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="L13" s="46"/>
+      <c r="L13" s="45"/>
     </row>
     <row r="14" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="40">
         <v>44970</v>
       </c>
-      <c r="D14" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="41">
+      <c r="D14" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="40">
         <v>44974</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="42">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45" t="s">
+      <c r="H14" s="43"/>
+      <c r="I14" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="42" t="s">
+      <c r="J14" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="45" t="s">
+      <c r="K14" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="46"/>
+      <c r="L14" s="45"/>
     </row>
     <row r="15" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="40">
         <v>44977</v>
       </c>
-      <c r="D15" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="41">
+      <c r="D15" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="40">
         <v>44981</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="42">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45" t="s">
+      <c r="H15" s="43"/>
+      <c r="I15" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="45" t="s">
+      <c r="K15" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="46"/>
+      <c r="L15" s="45"/>
     </row>
     <row r="16" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="40">
         <v>44984</v>
       </c>
-      <c r="D16" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="41">
+      <c r="D16" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="40">
         <v>44988</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="42">
         <f>DAYS360(C16,E16)-2</f>
         <v>4</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="46">
         <v>44987</v>
       </c>
-      <c r="I16" s="45" t="s">
+      <c r="I16" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="45" t="s">
+      <c r="J16" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="45" t="s">
+      <c r="K16" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="L16" s="46"/>
+      <c r="L16" s="45"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="40">
         <v>44991</v>
       </c>
-      <c r="D17" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="41">
+      <c r="D17" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="40">
         <v>44995</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="42">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45" t="s">
+      <c r="H17" s="43"/>
+      <c r="I17" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="K17" s="45" t="s">
+      <c r="K17" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="L17" s="46"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="40">
         <v>44998</v>
       </c>
-      <c r="D18" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="41">
+      <c r="D18" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="40">
         <v>45002</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45" t="s">
+      <c r="H18" s="43"/>
+      <c r="I18" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="J18" s="45" t="s">
+      <c r="J18" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="K18" s="45" t="s">
+      <c r="K18" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="L18" s="46"/>
+      <c r="L18" s="45"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="40">
         <v>45005</v>
       </c>
-      <c r="D19" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="41">
+      <c r="D19" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="40">
         <v>45009</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45" t="s">
+      <c r="H19" s="43"/>
+      <c r="I19" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="42" t="s">
+      <c r="J19" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="K19" s="45" t="s">
+      <c r="K19" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="L19" s="46"/>
+      <c r="L19" s="45"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="40">
         <v>45012</v>
       </c>
-      <c r="D20" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="41">
+      <c r="D20" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="40">
         <v>45016</v>
       </c>
-      <c r="F20" s="43">
+      <c r="F20" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45" t="s">
+      <c r="H20" s="43"/>
+      <c r="I20" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="42" t="s">
+      <c r="J20" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="45" t="s">
+      <c r="K20" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="46"/>
+      <c r="L20" s="45"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="40">
         <v>45019</v>
       </c>
-      <c r="D21" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="41">
+      <c r="D21" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="40">
         <v>45023</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F21" s="42">
         <f>DAYS360(C21,E21)+1</f>
         <v>5</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="46">
         <v>45019</v>
       </c>
-      <c r="I21" s="45" t="s">
+      <c r="I21" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="45" t="s">
+      <c r="J21" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="K21" s="45" t="s">
+      <c r="K21" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="L21" s="46"/>
+      <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="40">
         <v>45026</v>
       </c>
-      <c r="D22" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="41">
+      <c r="D22" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="40">
         <v>45030</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44" t="s">
+      <c r="H22" s="43"/>
+      <c r="I22" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="42" t="s">
+      <c r="J22" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="K22" s="45" t="s">
+      <c r="K22" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="L22" s="46"/>
+      <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="40">
         <v>45033</v>
       </c>
-      <c r="D23" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="41">
+      <c r="D23" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="40">
         <v>45037</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44" t="s">
+      <c r="H23" s="43"/>
+      <c r="I23" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="J23" s="42" t="s">
+      <c r="J23" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="K23" s="45" t="s">
+      <c r="K23" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="L23" s="46"/>
+      <c r="L23" s="45"/>
     </row>
     <row r="24" spans="1:12" ht="55.5" customHeight="1">
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="40">
         <v>45040</v>
       </c>
-      <c r="D24" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="41">
+      <c r="D24" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="40">
         <v>45044</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="46">
         <v>45041</v>
       </c>
-      <c r="I24" s="44" t="s">
+      <c r="I24" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="42" t="s">
+      <c r="J24" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="K24" s="45" t="s">
+      <c r="K24" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="L24" s="50"/>
+      <c r="L24" s="49"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="41">
+      <c r="C25" s="40">
         <v>45047</v>
       </c>
-      <c r="D25" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="41">
+      <c r="D25" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="40">
         <v>45050</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="42">
         <f>DAYS360(C25,E25)+1</f>
         <v>4</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="44" t="s">
+      <c r="H25" s="52"/>
+      <c r="I25" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="42" t="s">
+      <c r="J25" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="K25" s="45" t="s">
+      <c r="K25" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="L25" s="50"/>
+      <c r="L25" s="49"/>
     </row>
     <row r="26" spans="1:12" ht="51" customHeight="1">
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="40">
         <v>45054</v>
       </c>
-      <c r="D26" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="41">
+      <c r="D26" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="40">
         <v>45058</v>
       </c>
-      <c r="F26" s="43">
+      <c r="F26" s="42">
         <f>DAYS360(C26,E26)+1</f>
         <v>5</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="53"/>
-      <c r="I26" s="44" t="s">
+      <c r="H26" s="52"/>
+      <c r="I26" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="42" t="s">
+      <c r="J26" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="K26" s="45" t="s">
+      <c r="K26" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="L26" s="54"/>
+      <c r="L26" s="53"/>
     </row>
     <row r="27" spans="1:12" ht="51" customHeight="1">
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="40">
         <v>45061</v>
       </c>
-      <c r="D27" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="41">
+      <c r="D27" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="40">
         <v>45065</v>
       </c>
-      <c r="F27" s="43">
+      <c r="F27" s="42">
         <f>DAYS360(C27,E27)+1</f>
         <v>5</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="47">
+      <c r="H27" s="46">
         <v>45065</v>
       </c>
-      <c r="I27" s="44" t="s">
+      <c r="I27" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="45" t="s">
+      <c r="J27" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="K27" s="45" t="s">
+      <c r="K27" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="L27" s="54"/>
+      <c r="L27" s="53"/>
     </row>
     <row r="28" spans="1:12" ht="51" customHeight="1">
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="40">
         <v>45068</v>
       </c>
-      <c r="D28" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="41">
+      <c r="D28" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="40">
         <v>45072</v>
       </c>
-      <c r="F28" s="43">
+      <c r="F28" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="44" t="s">
+      <c r="H28" s="52"/>
+      <c r="I28" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="J28" s="42" t="s">
+      <c r="J28" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="K28" s="45" t="s">
+      <c r="K28" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="L28" s="54"/>
+      <c r="L28" s="53"/>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1">
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="40">
         <v>45076</v>
       </c>
-      <c r="D29" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="41">
+      <c r="D29" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="40">
         <v>45079</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F29" s="42">
         <f>DAYS360(C29,E29)+2</f>
         <v>4</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="53"/>
-      <c r="I29" s="44" t="s">
+      <c r="H29" s="52"/>
+      <c r="I29" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="J29" s="42" t="s">
+      <c r="J29" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="K29" s="45" t="s">
+      <c r="K29" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="L29" s="54"/>
+      <c r="L29" s="53"/>
     </row>
     <row r="30" spans="1:12" ht="51" customHeight="1">
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="40">
         <v>45082</v>
       </c>
-      <c r="D30" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="41">
+      <c r="D30" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="40">
         <v>45086</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="42">
         <f>DAYS360(C30,E30)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="37" t="s">
+      <c r="G30" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="53"/>
-      <c r="I30" s="44" t="s">
+      <c r="H30" s="52"/>
+      <c r="I30" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="J30" s="42" t="s">
+      <c r="J30" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="K30" s="45" t="s">
+      <c r="K30" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="L30" s="54"/>
+      <c r="L30" s="53"/>
     </row>
     <row r="31" spans="1:12" ht="51" customHeight="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="40">
         <v>45089</v>
       </c>
-      <c r="D31" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="30">
+      <c r="D31" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="40">
         <v>45093</v>
       </c>
-      <c r="F31" s="51">
+      <c r="F31" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="62">
+      <c r="H31" s="46">
         <v>45089</v>
       </c>
-      <c r="I31" s="49" t="s">
+      <c r="I31" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="J31" s="31" t="s">
+      <c r="J31" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="K31" s="32" t="s">
+      <c r="K31" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="L31" s="52"/>
+      <c r="L31" s="53"/>
     </row>
     <row r="32" spans="1:12" ht="51" customHeight="1">
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="29">
         <v>45096</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="7">
+      <c r="D32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="29">
         <v>45100</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="50">
         <f>DAYS360(C32,E32)+1</f>
         <v>5</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="11" t="s">
+      <c r="H32" s="61"/>
+      <c r="I32" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="K32" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="L32" s="15"/>
+      <c r="L32" s="51"/>
     </row>
     <row r="33" spans="2:12" ht="51" customHeight="1">
       <c r="B33" s="6" t="s">
@@ -2331,43 +2328,43 @@
       <c r="I33" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="J33" s="48" t="s">
+      <c r="J33" s="47" t="s">
         <v>103</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="L33" s="15"/>
+      <c r="L33" s="14"/>
     </row>
     <row r="34" spans="2:12" ht="51" customHeight="1" thickBot="1">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="17">
         <v>45110</v>
       </c>
-      <c r="D34" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="18">
+      <c r="D34" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="17">
         <v>45111</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G34" s="21" t="s">
+      <c r="G34" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="27">
+      <c r="H34" s="26">
         <v>45111</v>
       </c>
-      <c r="I34" s="27"/>
-      <c r="J34" s="19" t="s">
+      <c r="I34" s="26"/>
+      <c r="J34" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="K34" s="26"/>
-      <c r="L34" s="28"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="27"/>
     </row>
     <row r="35" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
       <c r="C35" s="1"/>
@@ -2378,32 +2375,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -565,7 +565,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,12 +602,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -817,7 +811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -836,33 +830,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -959,9 +926,6 @@
     <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1001,7 +965,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1317,7 +1281,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1338,1035 +1302,1035 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="23" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="24">
         <v>44909</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="33">
+      <c r="D5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="24">
         <v>44911</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="26">
         <f>DAYS360(C5,E5)+1</f>
         <v>3</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="37" t="s">
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="38"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="31">
         <v>44914</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="40">
+      <c r="D6" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="31">
         <v>44918</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="33">
         <f t="shared" ref="F6:F34" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="41" t="s">
+      <c r="H6" s="34"/>
+      <c r="I6" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="45"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="31">
         <v>44921</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="40">
+      <c r="D7" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="31">
         <v>44925</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="41" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="45"/>
+      <c r="L7" s="36"/>
     </row>
     <row r="8" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="31">
         <v>44928</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="40">
+      <c r="D8" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="31">
         <v>44932</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="37">
         <v>44929</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="K8" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="45"/>
+      <c r="L8" s="36"/>
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="31">
         <v>44935</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="40">
+      <c r="D9" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="31">
         <v>44939</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="41" t="s">
+      <c r="H9" s="34"/>
+      <c r="I9" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="44" t="s">
+      <c r="K9" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="45"/>
+      <c r="L9" s="36"/>
     </row>
     <row r="10" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="31">
         <v>44942</v>
       </c>
-      <c r="D10" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="40">
+      <c r="D10" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="31">
         <v>44946</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="41" t="s">
+      <c r="H10" s="34"/>
+      <c r="I10" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="44" t="s">
+      <c r="J10" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="44" t="s">
+      <c r="K10" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="45"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="31">
         <v>44951</v>
       </c>
-      <c r="D11" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="40">
+      <c r="D11" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="31">
         <v>44953</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="33">
         <f>DAYS360(C11,E11)+1</f>
         <v>3</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="37">
         <v>44951</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="J11" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="44" t="s">
+      <c r="K11" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="45"/>
+      <c r="L11" s="36"/>
     </row>
     <row r="12" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="31">
         <v>44956</v>
       </c>
-      <c r="D12" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="40">
+      <c r="D12" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="31">
         <v>44960</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="33">
         <f>DAYS360(C12,E12)+2</f>
         <v>5</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44" t="s">
+      <c r="H12" s="34"/>
+      <c r="I12" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="44" t="s">
+      <c r="K12" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="45"/>
+      <c r="L12" s="36"/>
     </row>
     <row r="13" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="31">
         <v>44963</v>
       </c>
-      <c r="D13" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="40">
+      <c r="D13" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="31">
         <v>44967</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44" t="s">
+      <c r="H13" s="34"/>
+      <c r="I13" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="J13" s="41" t="s">
+      <c r="J13" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="44" t="s">
+      <c r="K13" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="L13" s="45"/>
+      <c r="L13" s="36"/>
     </row>
     <row r="14" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="31">
         <v>44970</v>
       </c>
-      <c r="D14" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="40">
+      <c r="D14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="31">
         <v>44974</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="33">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44" t="s">
+      <c r="H14" s="34"/>
+      <c r="I14" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="41" t="s">
+      <c r="J14" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="44" t="s">
+      <c r="K14" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="45"/>
+      <c r="L14" s="36"/>
     </row>
     <row r="15" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="31">
         <v>44977</v>
       </c>
-      <c r="D15" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="40">
+      <c r="D15" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="31">
         <v>44981</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="33">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="44" t="s">
+      <c r="H15" s="34"/>
+      <c r="I15" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="J15" s="44" t="s">
+      <c r="J15" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="44" t="s">
+      <c r="K15" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="45"/>
+      <c r="L15" s="36"/>
     </row>
     <row r="16" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="31">
         <v>44984</v>
       </c>
-      <c r="D16" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="40">
+      <c r="D16" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="31">
         <v>44988</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="33">
         <f>DAYS360(C16,E16)-2</f>
         <v>4</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="37">
         <v>44987</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="44" t="s">
+      <c r="J16" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="44" t="s">
+      <c r="K16" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="L16" s="45"/>
-    </row>
-    <row r="17" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B17" s="39" t="s">
+      <c r="L16" s="36"/>
+    </row>
+    <row r="17" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="31">
         <v>44991</v>
       </c>
-      <c r="D17" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="40">
+      <c r="D17" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="31">
         <v>44995</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="33">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44" t="s">
+      <c r="H17" s="34"/>
+      <c r="I17" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="44" t="s">
+      <c r="J17" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="K17" s="44" t="s">
+      <c r="K17" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="L17" s="45"/>
-    </row>
-    <row r="18" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B18" s="39" t="s">
+      <c r="L17" s="36"/>
+    </row>
+    <row r="18" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B18" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="31">
         <v>44998</v>
       </c>
-      <c r="D18" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="40">
+      <c r="D18" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="31">
         <v>45002</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44" t="s">
+      <c r="H18" s="34"/>
+      <c r="I18" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="J18" s="44" t="s">
+      <c r="J18" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="K18" s="44" t="s">
+      <c r="K18" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="L18" s="45"/>
-    </row>
-    <row r="19" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B19" s="39" t="s">
+      <c r="L18" s="36"/>
+    </row>
+    <row r="19" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B19" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="31">
         <v>45005</v>
       </c>
-      <c r="D19" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="40">
+      <c r="D19" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="31">
         <v>45009</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="44" t="s">
+      <c r="H19" s="34"/>
+      <c r="I19" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="41" t="s">
+      <c r="J19" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="K19" s="44" t="s">
+      <c r="K19" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="L19" s="45"/>
-    </row>
-    <row r="20" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B20" s="39" t="s">
+      <c r="L19" s="36"/>
+    </row>
+    <row r="20" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B20" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="31">
         <v>45012</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="40">
+      <c r="D20" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="31">
         <v>45016</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44" t="s">
+      <c r="H20" s="34"/>
+      <c r="I20" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="41" t="s">
+      <c r="J20" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="44" t="s">
+      <c r="K20" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="45"/>
-    </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B21" s="39" t="s">
+      <c r="L20" s="36"/>
+    </row>
+    <row r="21" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B21" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="31">
         <v>45019</v>
       </c>
-      <c r="D21" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="40">
+      <c r="D21" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="31">
         <v>45023</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="33">
         <f>DAYS360(C21,E21)+1</f>
         <v>5</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="37">
         <v>45019</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="44" t="s">
+      <c r="J21" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="K21" s="44" t="s">
+      <c r="K21" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="L21" s="45"/>
-    </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B22" s="39" t="s">
+      <c r="L21" s="36"/>
+    </row>
+    <row r="22" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B22" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="31">
         <v>45026</v>
       </c>
-      <c r="D22" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="40">
+      <c r="D22" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="31">
         <v>45030</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43" t="s">
+      <c r="H22" s="34"/>
+      <c r="I22" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="41" t="s">
+      <c r="J22" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="K22" s="44" t="s">
+      <c r="K22" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="L22" s="45"/>
-    </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B23" s="39" t="s">
+      <c r="L22" s="36"/>
+    </row>
+    <row r="23" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B23" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="31">
         <v>45033</v>
       </c>
-      <c r="D23" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="40">
+      <c r="D23" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="31">
         <v>45037</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43" t="s">
+      <c r="H23" s="34"/>
+      <c r="I23" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="J23" s="41" t="s">
+      <c r="J23" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="K23" s="44" t="s">
+      <c r="K23" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="L23" s="45"/>
-    </row>
-    <row r="24" spans="1:12" ht="55.5" customHeight="1">
-      <c r="B24" s="39" t="s">
+      <c r="L23" s="36"/>
+    </row>
+    <row r="24" spans="2:12" ht="55.5" customHeight="1">
+      <c r="B24" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="31">
         <v>45040</v>
       </c>
-      <c r="D24" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="40">
+      <c r="D24" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="31">
         <v>45044</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="37">
         <v>45041</v>
       </c>
-      <c r="I24" s="43" t="s">
+      <c r="I24" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="41" t="s">
+      <c r="J24" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="K24" s="44" t="s">
+      <c r="K24" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="L24" s="49"/>
-    </row>
-    <row r="25" spans="1:12" ht="57.75" customHeight="1">
-      <c r="B25" s="39" t="s">
+      <c r="L24" s="39"/>
+    </row>
+    <row r="25" spans="2:12" ht="57.75" customHeight="1">
+      <c r="B25" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25" s="31">
         <v>45047</v>
       </c>
-      <c r="D25" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="40">
+      <c r="D25" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="31">
         <v>45050</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="33">
         <f>DAYS360(C25,E25)+1</f>
         <v>4</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="52"/>
-      <c r="I25" s="43" t="s">
+      <c r="H25" s="42"/>
+      <c r="I25" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="41" t="s">
+      <c r="J25" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="K25" s="44" t="s">
+      <c r="K25" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="L25" s="49"/>
-    </row>
-    <row r="26" spans="1:12" ht="51" customHeight="1">
-      <c r="B26" s="39" t="s">
+      <c r="L25" s="39"/>
+    </row>
+    <row r="26" spans="2:12" ht="51" customHeight="1">
+      <c r="B26" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="31">
         <v>45054</v>
       </c>
-      <c r="D26" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="40">
+      <c r="D26" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="31">
         <v>45058</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="33">
         <f>DAYS360(C26,E26)+1</f>
         <v>5</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="52"/>
-      <c r="I26" s="43" t="s">
+      <c r="H26" s="42"/>
+      <c r="I26" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="41" t="s">
+      <c r="J26" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="K26" s="44" t="s">
+      <c r="K26" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="L26" s="53"/>
-    </row>
-    <row r="27" spans="1:12" ht="51" customHeight="1">
-      <c r="B27" s="39" t="s">
+      <c r="L26" s="43"/>
+    </row>
+    <row r="27" spans="2:12" ht="51" customHeight="1">
+      <c r="B27" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C27" s="31">
         <v>45061</v>
       </c>
-      <c r="D27" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="40">
+      <c r="D27" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="31">
         <v>45065</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="33">
         <f>DAYS360(C27,E27)+1</f>
         <v>5</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G27" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="46">
+      <c r="H27" s="37">
         <v>45065</v>
       </c>
-      <c r="I27" s="43" t="s">
+      <c r="I27" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="44" t="s">
+      <c r="J27" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="K27" s="44" t="s">
+      <c r="K27" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="L27" s="53"/>
-    </row>
-    <row r="28" spans="1:12" ht="51" customHeight="1">
-      <c r="B28" s="39" t="s">
+      <c r="L27" s="43"/>
+    </row>
+    <row r="28" spans="2:12" ht="51" customHeight="1">
+      <c r="B28" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="31">
         <v>45068</v>
       </c>
-      <c r="D28" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="40">
+      <c r="D28" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="31">
         <v>45072</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="36" t="s">
+      <c r="G28" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="43" t="s">
+      <c r="H28" s="42"/>
+      <c r="I28" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="J28" s="41" t="s">
+      <c r="J28" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="K28" s="44" t="s">
+      <c r="K28" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="L28" s="53"/>
-    </row>
-    <row r="29" spans="1:12" ht="51" customHeight="1">
-      <c r="B29" s="39" t="s">
+      <c r="L28" s="43"/>
+    </row>
+    <row r="29" spans="2:12" ht="51" customHeight="1">
+      <c r="B29" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C29" s="31">
         <v>45076</v>
       </c>
-      <c r="D29" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="40">
+      <c r="D29" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="31">
         <v>45079</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="33">
         <f>DAYS360(C29,E29)+2</f>
         <v>4</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="G29" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="52"/>
-      <c r="I29" s="43" t="s">
+      <c r="H29" s="42"/>
+      <c r="I29" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="J29" s="41" t="s">
+      <c r="J29" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="K29" s="44" t="s">
+      <c r="K29" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="L29" s="53"/>
-    </row>
-    <row r="30" spans="1:12" ht="51" customHeight="1">
-      <c r="B30" s="39" t="s">
+      <c r="L29" s="43"/>
+    </row>
+    <row r="30" spans="2:12" ht="51" customHeight="1">
+      <c r="B30" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="31">
         <v>45082</v>
       </c>
-      <c r="D30" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="40">
+      <c r="D30" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="31">
         <v>45086</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="33">
         <f>DAYS360(C30,E30)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="52"/>
-      <c r="I30" s="43" t="s">
+      <c r="H30" s="42"/>
+      <c r="I30" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="J30" s="41" t="s">
+      <c r="J30" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="K30" s="44" t="s">
+      <c r="K30" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="L30" s="53"/>
-    </row>
-    <row r="31" spans="1:12" ht="51" customHeight="1">
-      <c r="B31" s="39" t="s">
+      <c r="L30" s="43"/>
+    </row>
+    <row r="31" spans="2:12" ht="51" customHeight="1">
+      <c r="B31" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="40">
+      <c r="C31" s="31">
         <v>45089</v>
       </c>
-      <c r="D31" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="40">
+      <c r="D31" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="31">
         <v>45093</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="36" t="s">
+      <c r="G31" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="46">
+      <c r="H31" s="37">
         <v>45089</v>
       </c>
-      <c r="I31" s="43" t="s">
+      <c r="I31" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="J31" s="41" t="s">
+      <c r="J31" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="K31" s="44" t="s">
+      <c r="K31" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="L31" s="53"/>
-    </row>
-    <row r="32" spans="1:12" ht="51" customHeight="1">
-      <c r="A32" s="15"/>
-      <c r="B32" s="28" t="s">
+      <c r="L31" s="43"/>
+    </row>
+    <row r="32" spans="2:12" ht="51" customHeight="1">
+      <c r="B32" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="31">
         <v>45096</v>
       </c>
-      <c r="D32" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="29">
+      <c r="D32" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="31">
         <v>45100</v>
       </c>
-      <c r="F32" s="50">
+      <c r="F32" s="33">
         <f>DAYS360(C32,E32)+1</f>
         <v>5</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="61"/>
-      <c r="I32" s="48" t="s">
+      <c r="H32" s="42"/>
+      <c r="I32" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="J32" s="30" t="s">
+      <c r="J32" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="K32" s="31" t="s">
+      <c r="K32" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="L32" s="51"/>
-    </row>
-    <row r="33" spans="2:12" ht="51" customHeight="1">
-      <c r="B33" s="6" t="s">
+      <c r="L32" s="43"/>
+    </row>
+    <row r="33" spans="1:12" ht="51" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="20">
         <v>45103</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="7">
+      <c r="D33" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="20">
         <v>45107</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="51">
         <v>45107</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J33" s="47" t="s">
+      <c r="J33" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="K33" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="L33" s="14"/>
-    </row>
-    <row r="34" spans="2:12" ht="51" customHeight="1" thickBot="1">
-      <c r="B34" s="16" t="s">
+      <c r="L33" s="41"/>
+    </row>
+    <row r="34" spans="1:12" ht="51" customHeight="1" thickBot="1">
+      <c r="B34" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="8">
         <v>45110</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="17">
+      <c r="D34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="8">
         <v>45111</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="17">
         <v>45111</v>
       </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="18" t="s">
+      <c r="I34" s="17"/>
+      <c r="J34" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="K34" s="25"/>
-      <c r="L34" s="27"/>
-    </row>
-    <row r="35" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
+      <c r="K34" s="16"/>
+      <c r="L34" s="18"/>
+    </row>
+    <row r="35" spans="1:12" ht="47.25" customHeight="1" thickBot="1">
       <c r="C35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="4">
@@ -2374,33 +2338,33 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="56" t="s">
+    <row r="36" spans="1:12" ht="21.75" customHeight="1">
+      <c r="B36" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-    </row>
-    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="57" t="s">
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+    </row>
+    <row r="37" spans="1:12" s="5" customFormat="1" ht="20.25">
+      <c r="B37" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-pj-2022_주단위상세일정.xlsx
@@ -811,7 +811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -833,53 +833,14 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -926,17 +887,8 @@
     <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -965,7 +917,28 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1281,7 +1254,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1302,994 +1275,993 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="50"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="14" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="11">
         <v>44909</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="24">
+      <c r="D5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="11">
         <v>44911</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="13">
         <f>DAYS360(C5,E5)+1</f>
         <v>3</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="28" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="29"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="18">
         <v>44914</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="31">
+      <c r="D6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="18">
         <v>44918</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="20">
         <f t="shared" ref="F6:F34" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="32" t="s">
+      <c r="H6" s="21"/>
+      <c r="I6" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="18">
         <v>44921</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="31">
+      <c r="D7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="18">
         <v>44925</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="32" t="s">
+      <c r="H7" s="21"/>
+      <c r="I7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="36"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="18">
         <v>44928</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="31">
+      <c r="D8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="18">
         <v>44932</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="24">
         <v>44929</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="36"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="18">
         <v>44935</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="31">
+      <c r="D9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="18">
         <v>44939</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="32" t="s">
+      <c r="H9" s="21"/>
+      <c r="I9" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="36"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="18">
         <v>44942</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="31">
+      <c r="D10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="18">
         <v>44946</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="32" t="s">
+      <c r="H10" s="21"/>
+      <c r="I10" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="K10" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="36"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="18">
         <v>44951</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="31">
+      <c r="D11" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="18">
         <v>44953</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="20">
         <f>DAYS360(C11,E11)+1</f>
         <v>3</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="24">
         <v>44951</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="36"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="18">
         <v>44956</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="31">
+      <c r="D12" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="18">
         <v>44960</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="20">
         <f>DAYS360(C12,E12)+2</f>
         <v>5</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35" t="s">
+      <c r="H12" s="21"/>
+      <c r="I12" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="J12" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="36"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="18">
         <v>44963</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="31">
+      <c r="D13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="18">
         <v>44967</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35" t="s">
+      <c r="H13" s="21"/>
+      <c r="I13" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="35" t="s">
+      <c r="K13" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="L13" s="36"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="18">
         <v>44970</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="31">
+      <c r="D14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="18">
         <v>44974</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="20">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35" t="s">
+      <c r="H14" s="21"/>
+      <c r="I14" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="35" t="s">
+      <c r="K14" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="36"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="18">
         <v>44977</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="31">
+      <c r="D15" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="18">
         <v>44981</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="20">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35" t="s">
+      <c r="H15" s="21"/>
+      <c r="I15" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="J15" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="36"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="18">
         <v>44984</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="31">
+      <c r="D16" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="18">
         <v>44988</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="20">
         <f>DAYS360(C16,E16)-2</f>
         <v>4</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="24">
         <v>44987</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="L16" s="36"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="18">
         <v>44991</v>
       </c>
-      <c r="D17" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="31">
+      <c r="D17" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="18">
         <v>44995</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="20">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35" t="s">
+      <c r="H17" s="21"/>
+      <c r="I17" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="K17" s="35" t="s">
+      <c r="K17" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="L17" s="36"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="18">
         <v>44998</v>
       </c>
-      <c r="D18" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="31">
+      <c r="D18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="18">
         <v>45002</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35" t="s">
+      <c r="H18" s="21"/>
+      <c r="I18" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="J18" s="35" t="s">
+      <c r="J18" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="K18" s="35" t="s">
+      <c r="K18" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="L18" s="36"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="18">
         <v>45005</v>
       </c>
-      <c r="D19" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="31">
+      <c r="D19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="18">
         <v>45009</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35" t="s">
+      <c r="H19" s="21"/>
+      <c r="I19" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K19" s="35" t="s">
+      <c r="K19" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="L19" s="36"/>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="18">
         <v>45012</v>
       </c>
-      <c r="D20" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="31">
+      <c r="D20" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="18">
         <v>45016</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="35" t="s">
+      <c r="H20" s="21"/>
+      <c r="I20" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J20" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="35" t="s">
+      <c r="K20" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="36"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="18">
         <v>45019</v>
       </c>
-      <c r="D21" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="31">
+      <c r="D21" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="18">
         <v>45023</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="20">
         <f>DAYS360(C21,E21)+1</f>
         <v>5</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="24">
         <v>45019</v>
       </c>
-      <c r="I21" s="35" t="s">
+      <c r="I21" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="35" t="s">
+      <c r="J21" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="K21" s="35" t="s">
+      <c r="K21" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="L21" s="36"/>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="18">
         <v>45026</v>
       </c>
-      <c r="D22" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="31">
+      <c r="D22" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="18">
         <v>45030</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34" t="s">
+      <c r="H22" s="21"/>
+      <c r="I22" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="32" t="s">
+      <c r="J22" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="K22" s="35" t="s">
+      <c r="K22" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="L22" s="36"/>
+      <c r="L22" s="23"/>
     </row>
     <row r="23" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="18">
         <v>45033</v>
       </c>
-      <c r="D23" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="31">
+      <c r="D23" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="18">
         <v>45037</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34" t="s">
+      <c r="H23" s="21"/>
+      <c r="I23" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="J23" s="32" t="s">
+      <c r="J23" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="K23" s="35" t="s">
+      <c r="K23" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="L23" s="36"/>
+      <c r="L23" s="23"/>
     </row>
     <row r="24" spans="2:12" ht="55.5" customHeight="1">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="18">
         <v>45040</v>
       </c>
-      <c r="D24" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="31">
+      <c r="D24" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="18">
         <v>45044</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="24">
         <v>45041</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="32" t="s">
+      <c r="J24" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="K24" s="35" t="s">
+      <c r="K24" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="L24" s="39"/>
+      <c r="L24" s="25"/>
     </row>
     <row r="25" spans="2:12" ht="57.75" customHeight="1">
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="18">
         <v>45047</v>
       </c>
-      <c r="D25" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="31">
+      <c r="D25" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="18">
         <v>45050</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="20">
         <f>DAYS360(C25,E25)+1</f>
         <v>4</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="34" t="s">
+      <c r="H25" s="26"/>
+      <c r="I25" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="32" t="s">
+      <c r="J25" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="K25" s="35" t="s">
+      <c r="K25" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="L25" s="39"/>
+      <c r="L25" s="25"/>
     </row>
     <row r="26" spans="2:12" ht="51" customHeight="1">
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="18">
         <v>45054</v>
       </c>
-      <c r="D26" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="31">
+      <c r="D26" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="18">
         <v>45058</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="20">
         <f>DAYS360(C26,E26)+1</f>
         <v>5</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="42"/>
-      <c r="I26" s="34" t="s">
+      <c r="H26" s="26"/>
+      <c r="I26" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="32" t="s">
+      <c r="J26" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="K26" s="35" t="s">
+      <c r="K26" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="L26" s="43"/>
+      <c r="L26" s="27"/>
     </row>
     <row r="27" spans="2:12" ht="51" customHeight="1">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="18">
         <v>45061</v>
       </c>
-      <c r="D27" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="31">
+      <c r="D27" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="18">
         <v>45065</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="20">
         <f>DAYS360(C27,E27)+1</f>
         <v>5</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="24">
         <v>45065</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="35" t="s">
+      <c r="J27" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="K27" s="35" t="s">
+      <c r="K27" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="L27" s="43"/>
+      <c r="L27" s="27"/>
     </row>
     <row r="28" spans="2:12" ht="51" customHeight="1">
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="18">
         <v>45068</v>
       </c>
-      <c r="D28" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="31">
+      <c r="D28" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="18">
         <v>45072</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="42"/>
-      <c r="I28" s="34" t="s">
+      <c r="H28" s="26"/>
+      <c r="I28" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="J28" s="32" t="s">
+      <c r="J28" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="K28" s="35" t="s">
+      <c r="K28" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L28" s="43"/>
+      <c r="L28" s="27"/>
     </row>
     <row r="29" spans="2:12" ht="51" customHeight="1">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="18">
         <v>45076</v>
       </c>
-      <c r="D29" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="31">
+      <c r="D29" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="18">
         <v>45079</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="20">
         <f>DAYS360(C29,E29)+2</f>
         <v>4</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="42"/>
-      <c r="I29" s="34" t="s">
+      <c r="H29" s="26"/>
+      <c r="I29" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="J29" s="32" t="s">
+      <c r="J29" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="K29" s="35" t="s">
+      <c r="K29" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L29" s="43"/>
+      <c r="L29" s="27"/>
     </row>
     <row r="30" spans="2:12" ht="51" customHeight="1">
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="18">
         <v>45082</v>
       </c>
-      <c r="D30" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="31">
+      <c r="D30" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="18">
         <v>45086</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="20">
         <f>DAYS360(C30,E30)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="34" t="s">
+      <c r="H30" s="26"/>
+      <c r="I30" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="K30" s="35" t="s">
+      <c r="K30" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L30" s="43"/>
+      <c r="L30" s="27"/>
     </row>
     <row r="31" spans="2:12" ht="51" customHeight="1">
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="18">
         <v>45089</v>
       </c>
-      <c r="D31" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="31">
+      <c r="D31" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="18">
         <v>45093</v>
       </c>
-      <c r="F31" s="33">
+      <c r="F31" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="G31" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="24">
         <v>45089</v>
       </c>
-      <c r="I31" s="34" t="s">
+      <c r="I31" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="J31" s="32" t="s">
+      <c r="J31" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="K31" s="35" t="s">
+      <c r="K31" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="L31" s="43"/>
+      <c r="L31" s="27"/>
     </row>
     <row r="32" spans="2:12" ht="51" customHeight="1">
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="18">
         <v>45096</v>
       </c>
-      <c r="D32" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="31">
+      <c r="D32" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="18">
         <v>45100</v>
       </c>
-      <c r="F32" s="33">
+      <c r="F32" s="20">
         <f>DAYS360(C32,E32)+1</f>
         <v>5</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="42"/>
-      <c r="I32" s="34" t="s">
+      <c r="H32" s="26"/>
+      <c r="I32" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="J32" s="32" t="s">
+      <c r="J32" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="K32" s="35" t="s">
+      <c r="K32" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="L32" s="43"/>
+      <c r="L32" s="27"/>
     </row>
     <row r="33" spans="1:12" ht="51" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="18">
         <v>45103</v>
       </c>
-      <c r="D33" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="20">
+      <c r="D33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="18">
         <v>45107</v>
       </c>
-      <c r="F33" s="40">
+      <c r="F33" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H33" s="51">
+      <c r="H33" s="24">
         <v>45107</v>
       </c>
-      <c r="I33" s="38" t="s">
+      <c r="I33" s="21" t="s">
         <v>110</v>
       </c>
       <c r="J33" s="22" t="s">
@@ -2298,37 +2270,38 @@
       <c r="K33" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="L33" s="41"/>
+      <c r="L33" s="27"/>
     </row>
     <row r="34" spans="1:12" ht="51" customHeight="1" thickBot="1">
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="6"/>
+      <c r="B34" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="36">
         <v>45110</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="8">
+      <c r="D34" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="36">
         <v>45111</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="40">
         <v>45111</v>
       </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="9" t="s">
+      <c r="I34" s="40"/>
+      <c r="J34" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K34" s="16"/>
-      <c r="L34" s="18"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="42"/>
     </row>
     <row r="35" spans="1:12" ht="47.25" customHeight="1" thickBot="1">
       <c r="C35" s="1"/>
@@ -2339,32 +2312,32 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
     </row>
     <row r="37" spans="1:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
